--- a/inst/extdata/test_scenarios_hep_afg.xlsx
+++ b/inst/extdata/test_scenarios_hep_afg.xlsx
@@ -1770,7 +1770,7 @@
     <t>Raw values *</t>
   </si>
   <si>
-    <t xml:space="preserve">Date Summary Generated: 2022-01-26</t>
+    <t xml:space="preserve">Date Summary Generated: 2022-03-07</t>
   </si>
   <si>
     <t xml:space="preserve">Billion</t>
@@ -2214,17 +2214,17 @@
     <t xml:space="preserve">Health security</t>
   </si>
   <si>
-    <t xml:space="preserve">acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">halt_rise</t>
+    <t xml:space="preserve">covid_dip_lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre_covid_trajectory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="120">
+  <numFmts count="182">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="TXT"/>
     <numFmt numFmtId="167" formatCode="TXT"/>
@@ -2260,7 +2260,7 @@
     <numFmt numFmtId="197" formatCode="0.0"/>
     <numFmt numFmtId="198" formatCode="0"/>
     <numFmt numFmtId="199" formatCode="0"/>
-    <numFmt numFmtId="200" formatCode="0"/>
+    <numFmt numFmtId="200" formatCode="0.0"/>
     <numFmt numFmtId="201" formatCode="0.0"/>
     <numFmt numFmtId="202" formatCode="0.0"/>
     <numFmt numFmtId="203" formatCode="0.0"/>
@@ -2268,12 +2268,12 @@
     <numFmt numFmtId="205" formatCode="0.0"/>
     <numFmt numFmtId="206" formatCode="0.0"/>
     <numFmt numFmtId="207" formatCode="0.0"/>
-    <numFmt numFmtId="208" formatCode="0.0"/>
-    <numFmt numFmtId="209" formatCode="0.0"/>
-    <numFmt numFmtId="210" formatCode="0.0"/>
+    <numFmt numFmtId="208" formatCode="0"/>
+    <numFmt numFmtId="209" formatCode="0"/>
+    <numFmt numFmtId="210" formatCode="0"/>
     <numFmt numFmtId="211" formatCode="0.0"/>
-    <numFmt numFmtId="212" formatCode="0"/>
-    <numFmt numFmtId="213" formatCode="0"/>
+    <numFmt numFmtId="212" formatCode="0.0"/>
+    <numFmt numFmtId="213" formatCode="0.0"/>
     <numFmt numFmtId="214" formatCode="0.0"/>
     <numFmt numFmtId="215" formatCode="0.0"/>
     <numFmt numFmtId="216" formatCode="0.0"/>
@@ -2282,18 +2282,18 @@
     <numFmt numFmtId="219" formatCode="0.0"/>
     <numFmt numFmtId="220" formatCode="0.0"/>
     <numFmt numFmtId="221" formatCode="0.0"/>
-    <numFmt numFmtId="222" formatCode="0.0"/>
-    <numFmt numFmtId="223" formatCode="0.0"/>
-    <numFmt numFmtId="224" formatCode="0.00"/>
-    <numFmt numFmtId="225" formatCode="0.00"/>
-    <numFmt numFmtId="226" formatCode="0.00"/>
-    <numFmt numFmtId="227" formatCode="0.00"/>
-    <numFmt numFmtId="228" formatCode="0.00"/>
-    <numFmt numFmtId="229" formatCode="0.00"/>
-    <numFmt numFmtId="230" formatCode="0.00"/>
-    <numFmt numFmtId="231" formatCode="0.00"/>
-    <numFmt numFmtId="232" formatCode="0.00"/>
-    <numFmt numFmtId="233" formatCode="0.00"/>
+    <numFmt numFmtId="222" formatCode="0"/>
+    <numFmt numFmtId="223" formatCode="0"/>
+    <numFmt numFmtId="224" formatCode="0.0"/>
+    <numFmt numFmtId="225" formatCode="0.0"/>
+    <numFmt numFmtId="226" formatCode="0.0"/>
+    <numFmt numFmtId="227" formatCode="0.0"/>
+    <numFmt numFmtId="228" formatCode="0.0"/>
+    <numFmt numFmtId="229" formatCode="0.0"/>
+    <numFmt numFmtId="230" formatCode="0.0"/>
+    <numFmt numFmtId="231" formatCode="0.0"/>
+    <numFmt numFmtId="232" formatCode="0.0"/>
+    <numFmt numFmtId="233" formatCode="0.0"/>
     <numFmt numFmtId="234" formatCode="0.00"/>
     <numFmt numFmtId="235" formatCode="0.00"/>
     <numFmt numFmtId="236" formatCode="0.00"/>
@@ -2302,7 +2302,7 @@
     <numFmt numFmtId="239" formatCode="0.00"/>
     <numFmt numFmtId="240" formatCode="0.00"/>
     <numFmt numFmtId="241" formatCode="0.00"/>
-    <numFmt numFmtId="242" formatCode="0.0"/>
+    <numFmt numFmtId="242" formatCode="0.00"/>
     <numFmt numFmtId="243" formatCode="0.00"/>
     <numFmt numFmtId="244" formatCode="0.00"/>
     <numFmt numFmtId="245" formatCode="0.00"/>
@@ -2344,7 +2344,69 @@
     <numFmt numFmtId="281" formatCode="0.00"/>
     <numFmt numFmtId="282" formatCode="0.00"/>
     <numFmt numFmtId="283" formatCode="0.00"/>
-    <numFmt numFmtId="284" formatCode="0.00"/>
+    <numFmt numFmtId="284" formatCode="0.0"/>
+    <numFmt numFmtId="285" formatCode="0.00"/>
+    <numFmt numFmtId="286" formatCode="0.00"/>
+    <numFmt numFmtId="287" formatCode="0.00"/>
+    <numFmt numFmtId="288" formatCode="0.00"/>
+    <numFmt numFmtId="289" formatCode="0.00"/>
+    <numFmt numFmtId="290" formatCode="0.00"/>
+    <numFmt numFmtId="291" formatCode="0.00"/>
+    <numFmt numFmtId="292" formatCode="0.00"/>
+    <numFmt numFmtId="293" formatCode="0.00"/>
+    <numFmt numFmtId="294" formatCode="0.00"/>
+    <numFmt numFmtId="295" formatCode="0.00"/>
+    <numFmt numFmtId="296" formatCode="0.00"/>
+    <numFmt numFmtId="297" formatCode="0.00"/>
+    <numFmt numFmtId="298" formatCode="0.00"/>
+    <numFmt numFmtId="299" formatCode="0.00"/>
+    <numFmt numFmtId="300" formatCode="0.00"/>
+    <numFmt numFmtId="301" formatCode="0.00"/>
+    <numFmt numFmtId="302" formatCode="0.00"/>
+    <numFmt numFmtId="303" formatCode="0.00"/>
+    <numFmt numFmtId="304" formatCode="0.00"/>
+    <numFmt numFmtId="305" formatCode="0.00"/>
+    <numFmt numFmtId="306" formatCode="0.00"/>
+    <numFmt numFmtId="307" formatCode="0.00"/>
+    <numFmt numFmtId="308" formatCode="0.00"/>
+    <numFmt numFmtId="309" formatCode="0.00"/>
+    <numFmt numFmtId="310" formatCode="0.00"/>
+    <numFmt numFmtId="311" formatCode="0.00"/>
+    <numFmt numFmtId="312" formatCode="0.00"/>
+    <numFmt numFmtId="313" formatCode="0.00"/>
+    <numFmt numFmtId="314" formatCode="0.00"/>
+    <numFmt numFmtId="315" formatCode="0.00"/>
+    <numFmt numFmtId="316" formatCode="0.00"/>
+    <numFmt numFmtId="317" formatCode="0.00"/>
+    <numFmt numFmtId="318" formatCode="0.00"/>
+    <numFmt numFmtId="319" formatCode="0.00"/>
+    <numFmt numFmtId="320" formatCode="0.00"/>
+    <numFmt numFmtId="321" formatCode="0.00"/>
+    <numFmt numFmtId="322" formatCode="0.00"/>
+    <numFmt numFmtId="323" formatCode="0.00"/>
+    <numFmt numFmtId="324" formatCode="0.00"/>
+    <numFmt numFmtId="325" formatCode="0.00"/>
+    <numFmt numFmtId="326" formatCode="0.00"/>
+    <numFmt numFmtId="327" formatCode="0.00"/>
+    <numFmt numFmtId="328" formatCode="0.00"/>
+    <numFmt numFmtId="329" formatCode="0.00"/>
+    <numFmt numFmtId="330" formatCode="0.00"/>
+    <numFmt numFmtId="331" formatCode="0.00"/>
+    <numFmt numFmtId="332" formatCode="0.00"/>
+    <numFmt numFmtId="333" formatCode="0.00"/>
+    <numFmt numFmtId="334" formatCode="0.00"/>
+    <numFmt numFmtId="335" formatCode="0.00"/>
+    <numFmt numFmtId="336" formatCode="0.00"/>
+    <numFmt numFmtId="337" formatCode="0.00"/>
+    <numFmt numFmtId="338" formatCode="0.00"/>
+    <numFmt numFmtId="339" formatCode="0.00"/>
+    <numFmt numFmtId="340" formatCode="0.00"/>
+    <numFmt numFmtId="341" formatCode="0.00"/>
+    <numFmt numFmtId="342" formatCode="0.00"/>
+    <numFmt numFmtId="343" formatCode="0.00"/>
+    <numFmt numFmtId="344" formatCode="0.00"/>
+    <numFmt numFmtId="345" formatCode="0.00"/>
+    <numFmt numFmtId="346" formatCode="0.00"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2838,7 +2900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3302,76 +3364,76 @@
     <xf numFmtId="49" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="194" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="196" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="199" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="200" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="201" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="202" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="203" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="40" fillId="18" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="41" fillId="18" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="204" fontId="41" fillId="18" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="205" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="206" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="198" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="199" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="200" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="201" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="202" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="203" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="204" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="205" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="206" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="207" fontId="41" fillId="18" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="208" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="209" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="210" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="210" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="211" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="211" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="212" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="212" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="213" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="213" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="214" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3380,21 +3442,51 @@
     <xf numFmtId="215" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="216" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="216" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="217" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="217" fontId="41" fillId="18" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="218" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="218" fontId="41" fillId="18" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="219" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="220" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="221" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="222" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="223" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="224" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="225" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="226" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="227" fontId="34" fillId="15" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="228" fontId="41" fillId="18" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="219" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="220" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="221" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="222" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="229" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="230" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="231" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="232" fontId="41" fillId="14" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="41" fillId="15" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3404,61 +3496,157 @@
     <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="223" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="233" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="224" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="234" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="225" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="235" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="226" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="236" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="227" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="237" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="228" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="238" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="229" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="239" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="230" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="240" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="231" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="241" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="232" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="242" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="233" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="243" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="234" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="244" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="235" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="245" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="236" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="246" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="237" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="247" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="238" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="248" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="239" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="249" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="240" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="250" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="241" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="251" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="252" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="253" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="254" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="255" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="256" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="257" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="258" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="259" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="260" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="261" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="262" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="263" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="264" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="265" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="266" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="267" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="268" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="269" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="270" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="271" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="272" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="273" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="274" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="275" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="276" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="277" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="278" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="279" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="280" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="281" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="282" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="283" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3467,133 +3655,193 @@
     <xf numFmtId="49" fontId="41" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="242" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="284" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="243" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="285" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="244" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="286" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="245" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="287" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="246" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="288" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="247" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="289" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="248" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="290" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="249" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="291" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="250" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="292" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="251" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="293" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="252" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="294" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="253" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="295" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="254" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="296" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="255" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="297" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="256" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="298" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="257" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="299" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="258" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="300" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="259" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="301" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="260" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="302" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="261" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="303" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="262" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="304" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="263" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="305" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="264" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="306" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="265" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="307" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="266" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="308" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="267" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="309" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="268" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="310" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="269" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="311" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="270" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="312" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="271" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="313" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="272" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="314" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="273" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="315" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="274" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="316" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="275" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="317" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="276" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="318" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="277" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="319" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="278" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="320" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="279" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="321" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="280" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="322" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="281" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="323" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="282" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="324" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="283" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="325" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="284" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="326" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="327" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="328" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="329" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="330" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="331" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="332" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="333" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="334" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="335" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="336" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="337" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="338" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="339" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="340" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="341" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="342" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="343" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="344" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="345" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="346" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12825,23 +13073,37 @@
         <v>300</v>
       </c>
       <c r="B13" s="168"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
+      <c r="C13" s="171" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" s="173" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G13" s="177"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="171"/>
+      <c r="I13" s="179" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
       <c r="V13" s="98"/>
       <c r="W13" s="98"/>
       <c r="X13" s="98"/>
@@ -12858,23 +13120,37 @@
         <v>302</v>
       </c>
       <c r="B14" s="168"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
+      <c r="C14" s="171" t="n">
+        <v>90</v>
+      </c>
+      <c r="D14" s="173" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F14" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G14" s="177"/>
       <c r="H14" s="55"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="171"/>
+      <c r="I14" s="179" t="n">
+        <v>60</v>
+      </c>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="181" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
       <c r="V14" s="98"/>
       <c r="W14" s="98"/>
       <c r="X14" s="98"/>
@@ -12891,23 +13167,37 @@
         <v>304</v>
       </c>
       <c r="B15" s="168"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
+      <c r="C15" s="171" t="n">
+        <v>80</v>
+      </c>
+      <c r="D15" s="173" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F15" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G15" s="177"/>
       <c r="H15" s="55"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="171"/>
+      <c r="I15" s="179" t="n">
+        <v>80</v>
+      </c>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="181" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
       <c r="V15" s="98"/>
       <c r="W15" s="98"/>
       <c r="X15" s="98"/>
@@ -12924,23 +13214,37 @@
         <v>305</v>
       </c>
       <c r="B16" s="168"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
+      <c r="C16" s="171" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F16" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G16" s="177"/>
       <c r="H16" s="55"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="171"/>
+      <c r="I16" s="179" t="n">
+        <v>20</v>
+      </c>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
       <c r="V16" s="98"/>
       <c r="W16" s="98"/>
       <c r="X16" s="98"/>
@@ -12957,23 +13261,37 @@
         <v>306</v>
       </c>
       <c r="B17" s="168"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
+      <c r="C17" s="171" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" s="173" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F17" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G17" s="177"/>
       <c r="H17" s="55"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="171"/>
-      <c r="S17" s="171"/>
+      <c r="I17" s="179" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
       <c r="V17" s="98"/>
       <c r="W17" s="98"/>
       <c r="X17" s="98"/>
@@ -12990,23 +13308,37 @@
         <v>307</v>
       </c>
       <c r="B18" s="168"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
+      <c r="C18" s="171" t="n">
+        <v>70</v>
+      </c>
+      <c r="D18" s="173" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F18" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G18" s="177"/>
       <c r="H18" s="55"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="171"/>
+      <c r="I18" s="179" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="181" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
       <c r="V18" s="98"/>
       <c r="W18" s="98"/>
       <c r="X18" s="98"/>
@@ -13023,23 +13355,37 @@
         <v>308</v>
       </c>
       <c r="B19" s="168"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
+      <c r="C19" s="171" t="n">
+        <v>40</v>
+      </c>
+      <c r="D19" s="173" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F19" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G19" s="177"/>
       <c r="H19" s="55"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="171"/>
+      <c r="I19" s="179" t="n">
+        <v>40</v>
+      </c>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
       <c r="V19" s="98"/>
       <c r="W19" s="98"/>
       <c r="X19" s="98"/>
@@ -13056,23 +13402,37 @@
         <v>309</v>
       </c>
       <c r="B20" s="168"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
+      <c r="C20" s="171" t="n">
+        <v>80</v>
+      </c>
+      <c r="D20" s="173" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F20" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G20" s="177"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="171"/>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="171"/>
+      <c r="I20" s="179" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
       <c r="V20" s="98"/>
       <c r="W20" s="98"/>
       <c r="X20" s="98"/>
@@ -13089,23 +13449,37 @@
         <v>310</v>
       </c>
       <c r="B21" s="168"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
+      <c r="C21" s="171" t="n">
+        <v>53</v>
+      </c>
+      <c r="D21" s="173" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F21" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G21" s="177"/>
       <c r="H21" s="55"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="171"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="171"/>
+      <c r="I21" s="179" t="n">
+        <v>40</v>
+      </c>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
       <c r="V21" s="98"/>
       <c r="W21" s="98"/>
       <c r="X21" s="98"/>
@@ -13122,23 +13496,37 @@
         <v>311</v>
       </c>
       <c r="B22" s="168"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
+      <c r="C22" s="171" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" s="173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F22" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G22" s="177"/>
       <c r="H22" s="55"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="171"/>
+      <c r="I22" s="179" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
       <c r="V22" s="98"/>
       <c r="W22" s="98"/>
       <c r="X22" s="98"/>
@@ -13155,23 +13543,37 @@
         <v>312</v>
       </c>
       <c r="B23" s="168"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="C23" s="171" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="173" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G23" s="177"/>
       <c r="H23" s="55"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="171"/>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="171"/>
+      <c r="I23" s="179" t="n">
+        <v>20</v>
+      </c>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
       <c r="V23" s="98"/>
       <c r="W23" s="98"/>
       <c r="X23" s="98"/>
@@ -13188,23 +13590,37 @@
         <v>313</v>
       </c>
       <c r="B24" s="168"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
+      <c r="C24" s="171" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" s="173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="175" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F24" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="G24" s="177"/>
       <c r="H24" s="55"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="171"/>
+      <c r="I24" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177" t="s">
+        <v>566</v>
+      </c>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
       <c r="V24" s="98"/>
       <c r="W24" s="98"/>
       <c r="X24" s="98"/>
@@ -13221,23 +13637,37 @@
         <v>314</v>
       </c>
       <c r="B25" s="169"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
+      <c r="C25" s="172" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="176" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F25" s="178" t="s">
+        <v>566</v>
+      </c>
+      <c r="G25" s="178"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
+      <c r="I25" s="180" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178" t="s">
+        <v>566</v>
+      </c>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
       <c r="V25" s="98"/>
       <c r="W25" s="98"/>
       <c r="X25" s="98"/>
@@ -13251,38 +13681,38 @@
     </row>
     <row r="26">
       <c r="A26" s="36"/>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="183" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="174" t="str">
+      <c r="C26" s="184" t="str">
         <f>=IFERROR(ROUND(AVERAGE(C13:C25),0), "")</f>
       </c>
-      <c r="D26" s="174" t="str">
+      <c r="D26" s="184" t="str">
         <f>=IFERROR(ROUND(AVERAGE(D13:D25), 0), "")</f>
       </c>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
       <c r="H26" s="43"/>
-      <c r="I26" s="174" t="str">
+      <c r="I26" s="184" t="str">
         <f>=IFERROR(ROUND(AVERAGE(I13:I25), 0), "")</f>
       </c>
-      <c r="J26" s="174" t="str">
+      <c r="J26" s="184" t="str">
         <f>=IFERROR(ROUND(AVERAGE(J13:J25), 0),"")</f>
       </c>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174" t="str">
+      <c r="K26" s="184"/>
+      <c r="L26" s="184" t="str">
         <f>=IFERROR(AVERAGE(L13:L25), "")</f>
       </c>
-      <c r="M26" s="174" t="str">
+      <c r="M26" s="184" t="str">
         <f>=IFERROR(AVERAGE(M13:M25),"")</f>
       </c>
-      <c r="N26" s="174"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
       <c r="V26" s="98"/>
       <c r="W26" s="98"/>
       <c r="X26" s="98"/>
@@ -13334,37 +13764,37 @@
       <c r="B28" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C28" s="175" t="n">
+      <c r="C28" s="185" t="n">
         <v>75</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="179" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F28" s="171" t="s">
+      <c r="D28" s="177"/>
+      <c r="E28" s="189" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F28" s="177" t="s">
         <v>566</v>
       </c>
-      <c r="G28" s="171"/>
+      <c r="G28" s="177"/>
       <c r="H28" s="55"/>
-      <c r="I28" s="182" t="n">
+      <c r="I28" s="192" t="n">
         <v>76</v>
       </c>
-      <c r="J28" s="185" t="n">
+      <c r="J28" s="195" t="n">
         <v>84.35</v>
       </c>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171" t="s">
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177" t="s">
         <v>566</v>
       </c>
-      <c r="P28" s="171" t="s">
+      <c r="P28" s="177" t="s">
         <v>567</v>
       </c>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
       <c r="V28" s="98"/>
       <c r="W28" s="98"/>
       <c r="X28" s="98"/>
@@ -13383,37 +13813,37 @@
       <c r="B29" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C29" s="175" t="n">
-        <v>64</v>
-      </c>
-      <c r="D29" s="171"/>
-      <c r="E29" s="179" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F29" s="171" t="s">
+      <c r="C29" s="185" t="n">
+        <v>66</v>
+      </c>
+      <c r="D29" s="177"/>
+      <c r="E29" s="189" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F29" s="177" t="s">
         <v>566</v>
       </c>
-      <c r="G29" s="171"/>
+      <c r="G29" s="177"/>
       <c r="H29" s="55"/>
-      <c r="I29" s="182" t="n">
+      <c r="I29" s="192" t="n">
         <v>71</v>
       </c>
-      <c r="J29" s="185" t="n">
+      <c r="J29" s="195" t="n">
         <v>69.53</v>
       </c>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171" t="s">
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177" t="s">
         <v>566</v>
       </c>
-      <c r="P29" s="171" t="s">
+      <c r="P29" s="177" t="s">
         <v>567</v>
       </c>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
       <c r="V29" s="98"/>
       <c r="W29" s="98"/>
       <c r="X29" s="98"/>
@@ -13432,23 +13862,23 @@
       <c r="B30" s="170" t="s">
         <v>274</v>
       </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="188"/>
+      <c r="O30" s="188"/>
+      <c r="P30" s="188"/>
+      <c r="Q30" s="188"/>
+      <c r="R30" s="188"/>
+      <c r="S30" s="188"/>
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
       <c r="V30" s="65"/>
@@ -13469,23 +13899,23 @@
       <c r="B31" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
       <c r="H31" s="60"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="178"/>
-      <c r="O31" s="178"/>
-      <c r="P31" s="178"/>
-      <c r="Q31" s="178"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="188"/>
+      <c r="O31" s="188"/>
+      <c r="P31" s="188"/>
+      <c r="Q31" s="188"/>
+      <c r="R31" s="188"/>
+      <c r="S31" s="188"/>
       <c r="T31" s="64"/>
       <c r="U31" s="64"/>
       <c r="V31" s="65"/>
@@ -13506,23 +13936,23 @@
       <c r="B32" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="175"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
       <c r="H32" s="60"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="171"/>
-      <c r="R32" s="171"/>
-      <c r="S32" s="171"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
       <c r="T32" s="64"/>
       <c r="U32" s="64"/>
       <c r="V32" s="65"/>
@@ -13543,23 +13973,23 @@
       <c r="B33" s="168" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="60"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="171"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
       <c r="T33" s="64"/>
       <c r="U33" s="64"/>
       <c r="V33" s="65"/>
@@ -13580,23 +14010,23 @@
       <c r="B34" s="168" t="s">
         <v>278</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
       <c r="H34" s="60"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="171"/>
-      <c r="L34" s="171"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="171"/>
-      <c r="O34" s="171"/>
-      <c r="P34" s="171"/>
-      <c r="Q34" s="171"/>
-      <c r="R34" s="171"/>
-      <c r="S34" s="171"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
       <c r="T34" s="64"/>
       <c r="U34" s="64"/>
       <c r="V34" s="65"/>
@@ -13617,23 +14047,23 @@
       <c r="B35" s="168" t="s">
         <v>278</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
       <c r="H35" s="55"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="185"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="171"/>
-      <c r="O35" s="171"/>
-      <c r="P35" s="171"/>
-      <c r="Q35" s="171"/>
-      <c r="R35" s="171"/>
-      <c r="S35" s="171"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
       <c r="V35" s="98"/>
       <c r="W35" s="98"/>
       <c r="X35" s="98"/>
@@ -13652,23 +14082,23 @@
       <c r="B36" s="168" t="s">
         <v>274</v>
       </c>
-      <c r="C36" s="175"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
       <c r="H36" s="55"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="171"/>
-      <c r="O36" s="171"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="171"/>
-      <c r="R36" s="171"/>
-      <c r="S36" s="171"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
       <c r="V36" s="98"/>
       <c r="W36" s="98"/>
       <c r="X36" s="98"/>
@@ -13687,23 +14117,23 @@
       <c r="B37" s="169" t="s">
         <v>278</v>
       </c>
-      <c r="C37" s="176"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
       <c r="H37" s="55"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="172"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="196"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="178"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
+      <c r="S37" s="178"/>
       <c r="V37" s="98"/>
       <c r="W37" s="98"/>
       <c r="X37" s="98"/>
@@ -13717,38 +14147,38 @@
     </row>
     <row r="38">
       <c r="A38" s="36"/>
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="188" t="str">
+      <c r="C38" s="198" t="str">
         <f>=IFERROR(AVERAGE(C28:C37), "")</f>
       </c>
-      <c r="D38" s="188" t="str">
+      <c r="D38" s="198" t="str">
         <f>=IFERROR(AVERAGE(D28:D37), "")</f>
       </c>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
       <c r="H38" s="73"/>
-      <c r="I38" s="188" t="str">
+      <c r="I38" s="198" t="str">
         <f>=IFERROR(AVERAGE(I28:I37), "")</f>
       </c>
-      <c r="J38" s="188" t="str">
+      <c r="J38" s="198" t="str">
         <f>=IFERROR(AVERAGE(J28:J37),"")</f>
       </c>
-      <c r="K38" s="188"/>
-      <c r="L38" s="188" t="str">
+      <c r="K38" s="198"/>
+      <c r="L38" s="198" t="str">
         <f>=IFERROR(AVERAGE(L28:L37), "")</f>
       </c>
-      <c r="M38" s="188" t="str">
+      <c r="M38" s="198" t="str">
         <f>=IFERROR(AVERAGE(M28:M37),"")</f>
       </c>
-      <c r="N38" s="188"/>
-      <c r="O38" s="188"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="188"/>
-      <c r="R38" s="188"/>
-      <c r="S38" s="188"/>
+      <c r="N38" s="198"/>
+      <c r="O38" s="198"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="198"/>
+      <c r="R38" s="198"/>
+      <c r="S38" s="198"/>
       <c r="V38" s="98"/>
       <c r="W38" s="98"/>
       <c r="X38" s="98"/>
@@ -13800,37 +14230,37 @@
       <c r="B40" s="168" t="s">
         <v>283</v>
       </c>
-      <c r="C40" s="189" t="n">
+      <c r="C40" s="199" t="n">
         <v>60</v>
       </c>
-      <c r="D40" s="191" t="n">
+      <c r="D40" s="201" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="193" t="n">
+      <c r="E40" s="203" t="n">
         <v>2021</v>
       </c>
-      <c r="F40" s="171" t="s">
+      <c r="F40" s="177" t="s">
         <v>566</v>
       </c>
-      <c r="G40" s="171"/>
+      <c r="G40" s="177"/>
       <c r="H40" s="55"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="195" t="n">
+      <c r="I40" s="177"/>
+      <c r="J40" s="205" t="n">
         <v>60</v>
       </c>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="197" t="n">
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="207" t="n">
         <v>3</v>
       </c>
-      <c r="N40" s="171"/>
-      <c r="O40" s="171"/>
-      <c r="P40" s="171" t="s">
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177" t="s">
         <v>567</v>
       </c>
-      <c r="Q40" s="171"/>
-      <c r="R40" s="171"/>
-      <c r="S40" s="171"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="177"/>
       <c r="V40" s="98"/>
       <c r="W40" s="98"/>
       <c r="X40" s="98"/>
@@ -13849,37 +14279,37 @@
       <c r="B41" s="168" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="189" t="n">
+      <c r="C41" s="199" t="n">
         <v>50</v>
       </c>
-      <c r="D41" s="191" t="n">
+      <c r="D41" s="201" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="193" t="n">
+      <c r="E41" s="203" t="n">
         <v>2021</v>
       </c>
-      <c r="F41" s="171" t="s">
+      <c r="F41" s="177" t="s">
         <v>566</v>
       </c>
-      <c r="G41" s="171"/>
+      <c r="G41" s="177"/>
       <c r="H41" s="55"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="195" t="n">
+      <c r="I41" s="177"/>
+      <c r="J41" s="205" t="n">
         <v>50</v>
       </c>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="197" t="n">
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="207" t="n">
         <v>3</v>
       </c>
-      <c r="N41" s="171"/>
-      <c r="O41" s="171"/>
-      <c r="P41" s="171" t="s">
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177" t="s">
         <v>567</v>
       </c>
-      <c r="Q41" s="171"/>
-      <c r="R41" s="171"/>
-      <c r="S41" s="171"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
       <c r="V41" s="98"/>
       <c r="W41" s="98"/>
       <c r="X41" s="98"/>
@@ -13898,37 +14328,37 @@
       <c r="B42" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="190" t="n">
+      <c r="C42" s="200" t="n">
         <v>90</v>
       </c>
-      <c r="D42" s="192" t="n">
+      <c r="D42" s="202" t="n">
         <v>5</v>
       </c>
-      <c r="E42" s="194" t="n">
+      <c r="E42" s="204" t="n">
         <v>2021</v>
       </c>
-      <c r="F42" s="172" t="s">
+      <c r="F42" s="178" t="s">
         <v>566</v>
       </c>
-      <c r="G42" s="172"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="196" t="n">
+      <c r="I42" s="178"/>
+      <c r="J42" s="206" t="n">
         <v>90</v>
       </c>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="198" t="n">
+      <c r="K42" s="178"/>
+      <c r="L42" s="178"/>
+      <c r="M42" s="208" t="n">
         <v>5</v>
       </c>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172" t="s">
+      <c r="N42" s="178"/>
+      <c r="O42" s="178"/>
+      <c r="P42" s="178" t="s">
         <v>567</v>
       </c>
-      <c r="Q42" s="172"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
+      <c r="Q42" s="178"/>
+      <c r="R42" s="178"/>
+      <c r="S42" s="178"/>
       <c r="V42" s="98"/>
       <c r="W42" s="98"/>
       <c r="X42" s="98"/>
@@ -13942,38 +14372,38 @@
     </row>
     <row r="43">
       <c r="A43" s="36"/>
-      <c r="B43" s="173" t="s">
+      <c r="B43" s="183" t="s">
         <v>441</v>
       </c>
-      <c r="C43" s="199" t="str">
+      <c r="C43" s="209" t="str">
         <f>=IFERROR(AVERAGE(C40:C42), "")</f>
       </c>
-      <c r="D43" s="199" t="str">
+      <c r="D43" s="209" t="str">
         <f>=IFERROR(AVERAGE(D40:D42), "")</f>
       </c>
-      <c r="E43" s="199"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="199"/>
+      <c r="E43" s="209"/>
+      <c r="F43" s="209"/>
+      <c r="G43" s="209"/>
       <c r="H43" s="43"/>
-      <c r="I43" s="199" t="str">
+      <c r="I43" s="209" t="str">
         <f>=IFERROR(AVERAGE(I40:I42), "")</f>
       </c>
-      <c r="J43" s="199" t="str">
+      <c r="J43" s="209" t="str">
         <f>=IFERROR(AVERAGE(J40:J42),"")</f>
       </c>
-      <c r="K43" s="199"/>
-      <c r="L43" s="199" t="str">
+      <c r="K43" s="209"/>
+      <c r="L43" s="209" t="str">
         <f>=IFERROR(AVERAGE(L40:L42), "")</f>
       </c>
-      <c r="M43" s="199" t="str">
+      <c r="M43" s="209" t="str">
         <f>=IFERROR(AVERAGE(M40:M42),"")</f>
       </c>
-      <c r="N43" s="199"/>
-      <c r="O43" s="199"/>
-      <c r="P43" s="199"/>
-      <c r="Q43" s="199"/>
-      <c r="R43" s="199"/>
-      <c r="S43" s="199"/>
+      <c r="N43" s="209"/>
+      <c r="O43" s="209"/>
+      <c r="P43" s="209"/>
+      <c r="Q43" s="209"/>
+      <c r="R43" s="209"/>
+      <c r="S43" s="209"/>
       <c r="V43" s="98"/>
       <c r="W43" s="98"/>
       <c r="X43" s="98"/>
@@ -13987,22 +14417,22 @@
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="32"/>
-      <c r="B44" s="200" t="s">
+      <c r="B44" s="210" t="s">
         <v>568</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="69"/>
       <c r="E44" s="69"/>
       <c r="F44" s="72"/>
-      <c r="G44" s="203" t="str">
+      <c r="G44" s="213" t="str">
         <f>=AVERAGE(C26,C38,C43)</f>
       </c>
       <c r="H44" s="73"/>
-      <c r="I44" s="205" t="n">
+      <c r="I44" s="215" t="n">
         <f>AVERAGE(I26,I38,I43)</f>
         <v>53.524358974358982</v>
       </c>
-      <c r="J44" s="205" t="n">
+      <c r="J44" s="215" t="n">
         <f>AVERAGE(J26,J38,J43)</f>
         <v>78.28653846153847</v>
       </c>
@@ -14028,19 +14458,19 @@
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="32"/>
-      <c r="B45" s="200" t="s">
+      <c r="B45" s="210" t="s">
         <v>569</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="69"/>
       <c r="F45" s="72"/>
-      <c r="G45" s="203" t="str">
+      <c r="G45" s="213" t="str">
         <f>=J44 - G44</f>
       </c>
       <c r="H45" s="73"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="205"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="215"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
@@ -14063,19 +14493,19 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="32"/>
-      <c r="B46" s="201" t="s">
+      <c r="B46" s="211" t="s">
         <v>570</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="33"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
-      <c r="G46" s="202" t="str">
+      <c r="G46" s="212" t="str">
         <f>=G7*1000</f>
       </c>
       <c r="H46" s="43"/>
-      <c r="I46" s="204"/>
-      <c r="J46" s="204"/>
+      <c r="I46" s="214"/>
+      <c r="J46" s="214"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
@@ -14098,19 +14528,19 @@
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="32"/>
-      <c r="B47" s="200" t="s">
+      <c r="B47" s="210" t="s">
         <v>571</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="33"/>
       <c r="E47" s="34"/>
       <c r="F47" s="70"/>
-      <c r="G47" s="203" t="str">
+      <c r="G47" s="213" t="str">
         <f>=G45*G46/100</f>
       </c>
       <c r="H47" s="43"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="205"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="215"/>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
@@ -14133,19 +14563,19 @@
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="32"/>
-      <c r="B48" s="200" t="s">
+      <c r="B48" s="210" t="s">
         <v>572</v>
       </c>
       <c r="C48" s="69"/>
       <c r="D48" s="33"/>
       <c r="E48" s="34"/>
       <c r="F48" s="74"/>
-      <c r="G48" s="203" t="str">
+      <c r="G48" s="213" t="str">
         <f>=G47/G46*100</f>
       </c>
       <c r="H48" s="43"/>
-      <c r="I48" s="205"/>
-      <c r="J48" s="205"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="215"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
@@ -14194,27 +14624,27 @@
       <c r="AE49" s="45"/>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="206" t="s">
+      <c r="A50" s="216" t="s">
         <v>573</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="206"/>
-      <c r="D50" s="206"/>
-      <c r="E50" s="206"/>
-      <c r="F50" s="206"/>
-      <c r="G50" s="206"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="206"/>
-      <c r="J50" s="206"/>
-      <c r="K50" s="206"/>
-      <c r="L50" s="206"/>
-      <c r="M50" s="206"/>
-      <c r="N50" s="206"/>
-      <c r="O50" s="206"/>
-      <c r="P50" s="206"/>
-      <c r="Q50" s="206"/>
-      <c r="R50" s="206"/>
-      <c r="S50" s="206"/>
+      <c r="B50" s="216"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="216"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="216"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="216"/>
+      <c r="L50" s="216"/>
+      <c r="M50" s="216"/>
+      <c r="N50" s="216"/>
+      <c r="O50" s="216"/>
+      <c r="P50" s="216"/>
+      <c r="Q50" s="216"/>
+      <c r="R50" s="216"/>
+      <c r="S50" s="216"/>
       <c r="Y50" s="45"/>
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
@@ -14224,27 +14654,27 @@
       <c r="AE50" s="45"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="207" t="s">
+      <c r="A51" s="217" t="s">
         <v>574</v>
       </c>
-      <c r="B51" s="207"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="207"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
-      <c r="H51" s="207"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="207"/>
-      <c r="K51" s="207"/>
-      <c r="L51" s="207"/>
-      <c r="M51" s="207"/>
-      <c r="N51" s="207"/>
-      <c r="O51" s="207"/>
-      <c r="P51" s="207"/>
-      <c r="Q51" s="207"/>
-      <c r="R51" s="207"/>
-      <c r="S51" s="207"/>
+      <c r="B51" s="217"/>
+      <c r="C51" s="217"/>
+      <c r="D51" s="217"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="217"/>
+      <c r="H51" s="217"/>
+      <c r="I51" s="217"/>
+      <c r="J51" s="217"/>
+      <c r="K51" s="217"/>
+      <c r="L51" s="217"/>
+      <c r="M51" s="217"/>
+      <c r="N51" s="217"/>
+      <c r="O51" s="217"/>
+      <c r="P51" s="217"/>
+      <c r="Q51" s="217"/>
+      <c r="R51" s="217"/>
+      <c r="S51" s="217"/>
       <c r="Y51" s="45"/>
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
@@ -14254,27 +14684,27 @@
       <c r="AE51" s="45"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="207" t="s">
+      <c r="A52" s="217" t="s">
         <v>575</v>
       </c>
-      <c r="B52" s="207"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="207"/>
-      <c r="K52" s="207"/>
-      <c r="L52" s="207"/>
-      <c r="M52" s="207"/>
-      <c r="N52" s="207"/>
-      <c r="O52" s="207"/>
-      <c r="P52" s="207"/>
-      <c r="Q52" s="207"/>
-      <c r="R52" s="207"/>
-      <c r="S52" s="207"/>
+      <c r="B52" s="217"/>
+      <c r="C52" s="217"/>
+      <c r="D52" s="217"/>
+      <c r="E52" s="217"/>
+      <c r="F52" s="217"/>
+      <c r="G52" s="217"/>
+      <c r="H52" s="217"/>
+      <c r="I52" s="217"/>
+      <c r="J52" s="217"/>
+      <c r="K52" s="217"/>
+      <c r="L52" s="217"/>
+      <c r="M52" s="217"/>
+      <c r="N52" s="217"/>
+      <c r="O52" s="217"/>
+      <c r="P52" s="217"/>
+      <c r="Q52" s="217"/>
+      <c r="R52" s="217"/>
+      <c r="S52" s="217"/>
       <c r="Y52" s="45"/>
       <c r="Z52" s="45"/>
       <c r="AA52" s="45"/>
@@ -14284,27 +14714,27 @@
       <c r="AE52" s="45"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="207" t="s">
+      <c r="A53" s="217" t="s">
         <v>576</v>
       </c>
-      <c r="B53" s="207"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="207"/>
-      <c r="K53" s="207"/>
-      <c r="L53" s="207"/>
-      <c r="M53" s="207"/>
-      <c r="N53" s="207"/>
-      <c r="O53" s="207"/>
-      <c r="P53" s="207"/>
-      <c r="Q53" s="207"/>
-      <c r="R53" s="207"/>
-      <c r="S53" s="207"/>
+      <c r="B53" s="217"/>
+      <c r="C53" s="217"/>
+      <c r="D53" s="217"/>
+      <c r="E53" s="217"/>
+      <c r="F53" s="217"/>
+      <c r="G53" s="217"/>
+      <c r="H53" s="217"/>
+      <c r="I53" s="217"/>
+      <c r="J53" s="217"/>
+      <c r="K53" s="217"/>
+      <c r="L53" s="217"/>
+      <c r="M53" s="217"/>
+      <c r="N53" s="217"/>
+      <c r="O53" s="217"/>
+      <c r="P53" s="217"/>
+      <c r="Q53" s="217"/>
+      <c r="R53" s="217"/>
+      <c r="S53" s="217"/>
       <c r="Y53" s="45"/>
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
@@ -14314,25 +14744,25 @@
       <c r="AE53" s="45"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="207"/>
-      <c r="B54" s="207"/>
-      <c r="C54" s="207"/>
-      <c r="D54" s="207"/>
-      <c r="E54" s="207"/>
-      <c r="F54" s="207"/>
-      <c r="G54" s="207"/>
-      <c r="H54" s="207"/>
-      <c r="I54" s="207"/>
-      <c r="J54" s="207"/>
-      <c r="K54" s="207"/>
-      <c r="L54" s="207"/>
-      <c r="M54" s="207"/>
-      <c r="N54" s="207"/>
-      <c r="O54" s="207"/>
-      <c r="P54" s="207"/>
-      <c r="Q54" s="207"/>
-      <c r="R54" s="207"/>
-      <c r="S54" s="207"/>
+      <c r="A54" s="217"/>
+      <c r="B54" s="217"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="217"/>
+      <c r="F54" s="217"/>
+      <c r="G54" s="217"/>
+      <c r="H54" s="217"/>
+      <c r="I54" s="217"/>
+      <c r="J54" s="217"/>
+      <c r="K54" s="217"/>
+      <c r="L54" s="217"/>
+      <c r="M54" s="217"/>
+      <c r="N54" s="217"/>
+      <c r="O54" s="217"/>
+      <c r="P54" s="217"/>
+      <c r="Q54" s="217"/>
+      <c r="R54" s="217"/>
+      <c r="S54" s="217"/>
       <c r="V54" s="102"/>
       <c r="Y54" s="45"/>
       <c r="Z54" s="45"/>
@@ -14664,1134 +15094,1283 @@
     </row>
     <row r="5">
       <c r="B5" s="164"/>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="218" t="s">
         <v>579</v>
       </c>
-      <c r="D5" s="208" t="s">
+      <c r="D5" s="218" t="s">
         <v>580</v>
       </c>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="218" t="s">
         <v>581</v>
       </c>
-      <c r="F5" s="208" t="s">
+      <c r="F5" s="218" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="208" t="s">
+      <c r="G5" s="218" t="s">
         <v>583</v>
       </c>
-      <c r="H5" s="208" t="s">
+      <c r="H5" s="218" t="s">
         <v>584</v>
       </c>
-      <c r="I5" s="208" t="s">
+      <c r="I5" s="218" t="s">
         <v>585</v>
       </c>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="218" t="s">
         <v>586</v>
       </c>
-      <c r="K5" s="208" t="s">
+      <c r="K5" s="218" t="s">
         <v>587</v>
       </c>
-      <c r="L5" s="208" t="s">
+      <c r="L5" s="218" t="s">
         <v>588</v>
       </c>
-      <c r="M5" s="208" t="s">
+      <c r="M5" s="218" t="s">
         <v>589</v>
       </c>
-      <c r="N5" s="208" t="s">
+      <c r="N5" s="218" t="s">
         <v>590</v>
       </c>
-      <c r="O5" s="208" t="s">
+      <c r="O5" s="218" t="s">
         <v>591</v>
       </c>
-      <c r="P5" s="208" t="s">
+      <c r="P5" s="218" t="s">
         <v>592</v>
       </c>
-      <c r="Q5" s="208" t="s">
+      <c r="Q5" s="218" t="s">
         <v>593</v>
       </c>
-      <c r="R5" s="208" t="s">
+      <c r="R5" s="218" t="s">
         <v>594</v>
       </c>
-      <c r="S5" s="208" t="s">
+      <c r="S5" s="218" t="s">
         <v>595</v>
       </c>
-      <c r="T5" s="208" t="s">
+      <c r="T5" s="218" t="s">
         <v>596</v>
       </c>
-      <c r="U5" s="208" t="s">
+      <c r="U5" s="218" t="s">
         <v>564</v>
       </c>
-      <c r="V5" s="208" t="s">
+      <c r="V5" s="218" t="s">
         <v>597</v>
       </c>
-      <c r="W5" s="208" t="s">
+      <c r="W5" s="218" t="s">
         <v>598</v>
       </c>
-      <c r="X5" s="208" t="s">
+      <c r="X5" s="218" t="s">
         <v>599</v>
       </c>
-      <c r="Y5" s="208" t="s">
+      <c r="Y5" s="218" t="s">
         <v>600</v>
       </c>
-      <c r="Z5" s="208" t="s">
+      <c r="Z5" s="218" t="s">
         <v>601</v>
       </c>
-      <c r="AA5" s="208" t="s">
+      <c r="AA5" s="218" t="s">
         <v>602</v>
       </c>
-      <c r="AB5" s="208" t="s">
+      <c r="AB5" s="218" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="271" t="s">
         <v>603</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
-      <c r="V6" s="209"/>
-      <c r="W6" s="209"/>
-      <c r="X6" s="209"/>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="209"/>
-      <c r="AA6" s="209"/>
-      <c r="AB6" s="209"/>
+      <c r="C6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="H6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="I6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="J6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="K6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="L6" s="251" t="n">
+        <v>45</v>
+      </c>
+      <c r="M6" s="220" t="n">
+        <v>45</v>
+      </c>
+      <c r="N6" s="220" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" s="220" t="n">
+        <v>25</v>
+      </c>
+      <c r="P6" s="220" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="220" t="n">
+        <v>46</v>
+      </c>
+      <c r="R6" s="220" t="n">
+        <v>43</v>
+      </c>
+      <c r="S6" s="220" t="n">
+        <v>42</v>
+      </c>
+      <c r="T6" s="220" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="U6" s="220" t="n">
+        <v>35</v>
+      </c>
+      <c r="V6" s="220" t="n">
+        <v>43</v>
+      </c>
+      <c r="W6" s="220" t="n">
+        <v>47</v>
+      </c>
+      <c r="X6" s="242" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="242" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="242" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="242" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB6" s="242" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="219" t="s">
         <v>604</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
-      <c r="S7" s="209"/>
-      <c r="T7" s="209"/>
-      <c r="U7" s="209"/>
-      <c r="V7" s="209"/>
-      <c r="W7" s="209"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="209"/>
-      <c r="AA7" s="209"/>
-      <c r="AB7" s="209"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="252"/>
+      <c r="N7" s="252"/>
+      <c r="O7" s="252"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="252"/>
+      <c r="R7" s="252"/>
+      <c r="S7" s="252"/>
+      <c r="T7" s="252"/>
+      <c r="U7" s="221" t="n">
+        <v>13</v>
+      </c>
+      <c r="V7" s="221" t="n">
+        <v>33</v>
+      </c>
+      <c r="W7" s="221" t="n">
+        <v>33</v>
+      </c>
+      <c r="X7" s="252"/>
+      <c r="Y7" s="252"/>
+      <c r="Z7" s="252"/>
+      <c r="AA7" s="252"/>
+      <c r="AB7" s="252"/>
     </row>
     <row r="8">
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="219" t="s">
         <v>605</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="209"/>
-      <c r="L8" s="209"/>
-      <c r="M8" s="209"/>
-      <c r="N8" s="209"/>
-      <c r="O8" s="209"/>
-      <c r="P8" s="209"/>
-      <c r="Q8" s="209"/>
-      <c r="R8" s="209"/>
-      <c r="S8" s="209"/>
-      <c r="T8" s="209"/>
-      <c r="U8" s="209"/>
-      <c r="V8" s="209"/>
-      <c r="W8" s="209"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="209"/>
-      <c r="Z8" s="209"/>
-      <c r="AA8" s="209"/>
-      <c r="AB8" s="209"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="253"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="253"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="253"/>
+      <c r="Q8" s="253"/>
+      <c r="R8" s="253"/>
+      <c r="S8" s="253"/>
+      <c r="T8" s="253"/>
+      <c r="U8" s="222" t="n">
+        <v>60</v>
+      </c>
+      <c r="V8" s="222" t="n">
+        <v>80</v>
+      </c>
+      <c r="W8" s="222" t="n">
+        <v>90</v>
+      </c>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="253"/>
+      <c r="Z8" s="253"/>
+      <c r="AA8" s="253"/>
+      <c r="AB8" s="253"/>
     </row>
     <row r="9">
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="219" t="s">
         <v>606</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
-      <c r="P9" s="209"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="209"/>
-      <c r="S9" s="209"/>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
-      <c r="V9" s="209"/>
-      <c r="W9" s="209"/>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="209"/>
-      <c r="Z9" s="209"/>
-      <c r="AA9" s="209"/>
-      <c r="AB9" s="209"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="254"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="223" t="n">
+        <v>80</v>
+      </c>
+      <c r="V9" s="223" t="n">
+        <v>80</v>
+      </c>
+      <c r="W9" s="223" t="n">
+        <v>80</v>
+      </c>
+      <c r="X9" s="254"/>
+      <c r="Y9" s="254"/>
+      <c r="Z9" s="254"/>
+      <c r="AA9" s="254"/>
+      <c r="AB9" s="254"/>
     </row>
     <row r="10">
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="219" t="s">
         <v>607</v>
       </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="209"/>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="209"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
-      <c r="V10" s="209"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="209"/>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="209"/>
-      <c r="AB10" s="209"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="255"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="255"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="255"/>
+      <c r="T10" s="255"/>
+      <c r="U10" s="224" t="n">
+        <v>20</v>
+      </c>
+      <c r="V10" s="224" t="n">
+        <v>20</v>
+      </c>
+      <c r="W10" s="224" t="n">
+        <v>20</v>
+      </c>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="255"/>
+      <c r="Z10" s="255"/>
+      <c r="AA10" s="255"/>
+      <c r="AB10" s="255"/>
     </row>
     <row r="11">
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="219" t="s">
         <v>608</v>
       </c>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="209"/>
-      <c r="Q11" s="209"/>
-      <c r="R11" s="209"/>
-      <c r="S11" s="209"/>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
-      <c r="V11" s="209"/>
-      <c r="W11" s="209"/>
-      <c r="X11" s="209"/>
-      <c r="Y11" s="209"/>
-      <c r="Z11" s="209"/>
-      <c r="AA11" s="209"/>
-      <c r="AB11" s="209"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="256"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="256"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="256"/>
+      <c r="U11" s="225" t="n">
+        <v>40</v>
+      </c>
+      <c r="V11" s="225" t="n">
+        <v>47</v>
+      </c>
+      <c r="W11" s="225" t="n">
+        <v>60</v>
+      </c>
+      <c r="X11" s="256"/>
+      <c r="Y11" s="256"/>
+      <c r="Z11" s="256"/>
+      <c r="AA11" s="256"/>
+      <c r="AB11" s="256"/>
     </row>
     <row r="12">
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="219" t="s">
         <v>609</v>
       </c>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="209"/>
-      <c r="P12" s="209"/>
-      <c r="Q12" s="209"/>
-      <c r="R12" s="209"/>
-      <c r="S12" s="209"/>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
-      <c r="V12" s="209"/>
-      <c r="W12" s="209"/>
-      <c r="X12" s="209"/>
-      <c r="Y12" s="209"/>
-      <c r="Z12" s="209"/>
-      <c r="AA12" s="209"/>
-      <c r="AB12" s="209"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="257"/>
+      <c r="P12" s="257"/>
+      <c r="Q12" s="257"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="257"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="226" t="n">
+        <v>80</v>
+      </c>
+      <c r="V12" s="226" t="n">
+        <v>80</v>
+      </c>
+      <c r="W12" s="226" t="n">
+        <v>70</v>
+      </c>
+      <c r="X12" s="257"/>
+      <c r="Y12" s="257"/>
+      <c r="Z12" s="257"/>
+      <c r="AA12" s="257"/>
+      <c r="AB12" s="257"/>
     </row>
     <row r="13">
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="219" t="s">
         <v>610</v>
       </c>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="209"/>
-      <c r="P13" s="209"/>
-      <c r="Q13" s="209"/>
-      <c r="R13" s="209"/>
-      <c r="S13" s="209"/>
-      <c r="T13" s="209"/>
-      <c r="U13" s="209"/>
-      <c r="V13" s="209"/>
-      <c r="W13" s="209"/>
-      <c r="X13" s="209"/>
-      <c r="Y13" s="209"/>
-      <c r="Z13" s="209"/>
-      <c r="AA13" s="209"/>
-      <c r="AB13" s="209"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="258"/>
+      <c r="H13" s="258"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="258"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="258"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="227" t="n">
+        <v>40</v>
+      </c>
+      <c r="V13" s="227" t="n">
+        <v>40</v>
+      </c>
+      <c r="W13" s="227" t="n">
+        <v>40</v>
+      </c>
+      <c r="X13" s="258"/>
+      <c r="Y13" s="258"/>
+      <c r="Z13" s="258"/>
+      <c r="AA13" s="258"/>
+      <c r="AB13" s="258"/>
     </row>
     <row r="14">
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="219" t="s">
         <v>611</v>
       </c>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
-      <c r="P14" s="209"/>
-      <c r="Q14" s="209"/>
-      <c r="R14" s="209"/>
-      <c r="S14" s="209"/>
-      <c r="T14" s="209"/>
-      <c r="U14" s="209"/>
-      <c r="V14" s="209"/>
-      <c r="W14" s="209"/>
-      <c r="X14" s="209"/>
-      <c r="Y14" s="209"/>
-      <c r="Z14" s="209"/>
-      <c r="AA14" s="209"/>
-      <c r="AB14" s="209"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="259"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="259"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="228" t="n">
+        <v>27</v>
+      </c>
+      <c r="V14" s="228" t="n">
+        <v>33</v>
+      </c>
+      <c r="W14" s="228" t="n">
+        <v>80</v>
+      </c>
+      <c r="X14" s="259"/>
+      <c r="Y14" s="259"/>
+      <c r="Z14" s="259"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="259"/>
     </row>
     <row r="15">
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="219" t="s">
         <v>612</v>
       </c>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
-      <c r="P15" s="209"/>
-      <c r="Q15" s="209"/>
-      <c r="R15" s="209"/>
-      <c r="S15" s="209"/>
-      <c r="T15" s="209"/>
-      <c r="U15" s="209"/>
-      <c r="V15" s="209"/>
-      <c r="W15" s="209"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="209"/>
-      <c r="Z15" s="209"/>
-      <c r="AA15" s="209"/>
-      <c r="AB15" s="209"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
+      <c r="O15" s="260"/>
+      <c r="P15" s="260"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="260"/>
+      <c r="S15" s="260"/>
+      <c r="T15" s="260"/>
+      <c r="U15" s="229" t="n">
+        <v>40</v>
+      </c>
+      <c r="V15" s="229" t="n">
+        <v>53</v>
+      </c>
+      <c r="W15" s="229" t="n">
+        <v>53</v>
+      </c>
+      <c r="X15" s="260"/>
+      <c r="Y15" s="260"/>
+      <c r="Z15" s="260"/>
+      <c r="AA15" s="260"/>
+      <c r="AB15" s="260"/>
     </row>
     <row r="16">
-      <c r="B16" s="209" t="s">
+      <c r="B16" s="219" t="s">
         <v>613</v>
       </c>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="209"/>
-      <c r="P16" s="209"/>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="209"/>
-      <c r="S16" s="209"/>
-      <c r="T16" s="209"/>
-      <c r="U16" s="209"/>
-      <c r="V16" s="209"/>
-      <c r="W16" s="209"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="209"/>
-      <c r="Z16" s="209"/>
-      <c r="AA16" s="209"/>
-      <c r="AB16" s="209"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="261"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="261"/>
+      <c r="S16" s="261"/>
+      <c r="T16" s="261"/>
+      <c r="U16" s="230" t="n">
+        <v>20</v>
+      </c>
+      <c r="V16" s="230" t="n">
+        <v>20</v>
+      </c>
+      <c r="W16" s="230" t="n">
+        <v>20</v>
+      </c>
+      <c r="X16" s="261"/>
+      <c r="Y16" s="261"/>
+      <c r="Z16" s="261"/>
+      <c r="AA16" s="261"/>
+      <c r="AB16" s="261"/>
     </row>
     <row r="17">
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="219" t="s">
         <v>614</v>
       </c>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="209"/>
-      <c r="P17" s="209"/>
-      <c r="Q17" s="209"/>
-      <c r="R17" s="209"/>
-      <c r="S17" s="209"/>
-      <c r="T17" s="209"/>
-      <c r="U17" s="209"/>
-      <c r="V17" s="209"/>
-      <c r="W17" s="209"/>
-      <c r="X17" s="209"/>
-      <c r="Y17" s="209"/>
-      <c r="Z17" s="209"/>
-      <c r="AA17" s="209"/>
-      <c r="AB17" s="209"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="262"/>
+      <c r="I17" s="262"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="262"/>
+      <c r="N17" s="262"/>
+      <c r="O17" s="262"/>
+      <c r="P17" s="262"/>
+      <c r="Q17" s="262"/>
+      <c r="R17" s="262"/>
+      <c r="S17" s="262"/>
+      <c r="T17" s="262"/>
+      <c r="U17" s="231" t="n">
+        <v>20</v>
+      </c>
+      <c r="V17" s="231" t="n">
+        <v>30</v>
+      </c>
+      <c r="W17" s="231" t="n">
+        <v>30</v>
+      </c>
+      <c r="X17" s="262"/>
+      <c r="Y17" s="262"/>
+      <c r="Z17" s="262"/>
+      <c r="AA17" s="262"/>
+      <c r="AB17" s="262"/>
     </row>
     <row r="18">
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="219" t="s">
         <v>615</v>
       </c>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
-      <c r="P18" s="209"/>
-      <c r="Q18" s="209"/>
-      <c r="R18" s="209"/>
-      <c r="S18" s="209"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="209"/>
-      <c r="V18" s="209"/>
-      <c r="W18" s="209"/>
-      <c r="X18" s="209"/>
-      <c r="Y18" s="209"/>
-      <c r="Z18" s="209"/>
-      <c r="AA18" s="209"/>
-      <c r="AB18" s="209"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="263"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="263"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="263"/>
+      <c r="Q18" s="263"/>
+      <c r="R18" s="263"/>
+      <c r="S18" s="263"/>
+      <c r="T18" s="263"/>
+      <c r="U18" s="232" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="232" t="n">
+        <v>20</v>
+      </c>
+      <c r="W18" s="232" t="n">
+        <v>20</v>
+      </c>
+      <c r="X18" s="263"/>
+      <c r="Y18" s="263"/>
+      <c r="Z18" s="263"/>
+      <c r="AA18" s="263"/>
+      <c r="AB18" s="263"/>
     </row>
     <row r="19">
-      <c r="B19" s="207" t="s">
+      <c r="B19" s="219" t="s">
+        <v>616</v>
+      </c>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="264"/>
+      <c r="I19" s="264"/>
+      <c r="J19" s="264"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="264"/>
+      <c r="M19" s="264"/>
+      <c r="N19" s="264"/>
+      <c r="O19" s="264"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="264"/>
+      <c r="R19" s="264"/>
+      <c r="S19" s="264"/>
+      <c r="T19" s="264"/>
+      <c r="U19" s="233" t="n">
+        <v>20</v>
+      </c>
+      <c r="V19" s="233" t="n">
+        <v>20</v>
+      </c>
+      <c r="W19" s="233" t="n">
+        <v>20</v>
+      </c>
+      <c r="X19" s="264"/>
+      <c r="Y19" s="264"/>
+      <c r="Z19" s="264"/>
+      <c r="AA19" s="264"/>
+      <c r="AB19" s="264"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="219" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="234" t="n">
+        <v>24</v>
+      </c>
+      <c r="D20" s="234" t="n">
+        <v>35</v>
+      </c>
+      <c r="E20" s="234" t="n">
+        <v>36</v>
+      </c>
+      <c r="F20" s="234" t="n">
+        <v>41</v>
+      </c>
+      <c r="G20" s="234" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" s="234" t="n">
+        <v>58</v>
+      </c>
+      <c r="I20" s="234" t="n">
+        <v>58</v>
+      </c>
+      <c r="J20" s="234" t="n">
+        <v>63</v>
+      </c>
+      <c r="K20" s="234" t="n">
+        <v>64</v>
+      </c>
+      <c r="L20" s="234" t="n">
+        <v>63</v>
+      </c>
+      <c r="M20" s="234" t="n">
+        <v>66</v>
+      </c>
+      <c r="N20" s="234" t="n">
+        <v>68</v>
+      </c>
+      <c r="O20" s="234" t="n">
+        <v>67</v>
+      </c>
+      <c r="P20" s="234" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="234" t="n">
+        <v>62</v>
+      </c>
+      <c r="R20" s="234" t="n">
+        <v>67</v>
+      </c>
+      <c r="S20" s="234" t="n">
+        <v>71</v>
+      </c>
+      <c r="T20" s="234" t="n">
+        <v>71</v>
+      </c>
+      <c r="U20" s="234" t="n">
+        <v>76</v>
+      </c>
+      <c r="V20" s="234" t="n">
+        <v>75</v>
+      </c>
+      <c r="W20" s="234" t="n">
+        <v>75</v>
+      </c>
+      <c r="X20" s="243" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="Y20" s="243" t="n">
+        <v>80.35</v>
+      </c>
+      <c r="Z20" s="243" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="AA20" s="243" t="n">
+        <v>83.08</v>
+      </c>
+      <c r="AB20" s="243" t="n">
+        <v>84.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="219" t="s">
+        <v>529</v>
+      </c>
+      <c r="C21" s="235" t="n">
+        <v>27</v>
+      </c>
+      <c r="D21" s="235" t="n">
+        <v>37</v>
+      </c>
+      <c r="E21" s="235" t="n">
+        <v>35</v>
+      </c>
+      <c r="F21" s="235" t="n">
+        <v>39</v>
+      </c>
+      <c r="G21" s="235" t="n">
+        <v>48</v>
+      </c>
+      <c r="H21" s="235" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" s="235" t="n">
+        <v>53</v>
+      </c>
+      <c r="J21" s="235" t="n">
+        <v>55</v>
+      </c>
+      <c r="K21" s="235" t="n">
+        <v>59</v>
+      </c>
+      <c r="L21" s="235" t="n">
+        <v>60</v>
+      </c>
+      <c r="M21" s="235" t="n">
+        <v>62</v>
+      </c>
+      <c r="N21" s="235" t="n">
+        <v>64</v>
+      </c>
+      <c r="O21" s="235" t="n">
+        <v>59</v>
+      </c>
+      <c r="P21" s="235" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="235" t="n">
+        <v>60</v>
+      </c>
+      <c r="R21" s="235" t="n">
+        <v>62</v>
+      </c>
+      <c r="S21" s="235" t="n">
+        <v>64</v>
+      </c>
+      <c r="T21" s="235" t="n">
+        <v>67</v>
+      </c>
+      <c r="U21" s="235" t="n">
+        <v>71</v>
+      </c>
+      <c r="V21" s="235" t="n">
+        <v>64</v>
+      </c>
+      <c r="W21" s="235" t="n">
+        <v>66</v>
+      </c>
+      <c r="X21" s="244" t="n">
+        <v>67.99</v>
+      </c>
+      <c r="Y21" s="244" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="Z21" s="244" t="n">
+        <v>68.77</v>
+      </c>
+      <c r="AA21" s="244" t="n">
+        <v>69.15</v>
+      </c>
+      <c r="AB21" s="244" t="n">
+        <v>69.53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="270" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="219"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="219"/>
+      <c r="S22" s="219"/>
+      <c r="T22" s="219"/>
+      <c r="U22" s="219"/>
+      <c r="V22" s="219"/>
+      <c r="W22" s="219"/>
+      <c r="X22" s="219"/>
+      <c r="Y22" s="219"/>
+      <c r="Z22" s="219"/>
+      <c r="AA22" s="219"/>
+      <c r="AB22" s="219"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="270" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="219"/>
+      <c r="Q23" s="219"/>
+      <c r="R23" s="219"/>
+      <c r="S23" s="219"/>
+      <c r="T23" s="219"/>
+      <c r="U23" s="219"/>
+      <c r="V23" s="219"/>
+      <c r="W23" s="219"/>
+      <c r="X23" s="219"/>
+      <c r="Y23" s="219"/>
+      <c r="Z23" s="219"/>
+      <c r="AA23" s="219"/>
+      <c r="AB23" s="219"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="219" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
+      <c r="P24" s="219"/>
+      <c r="Q24" s="219"/>
+      <c r="R24" s="219"/>
+      <c r="S24" s="219"/>
+      <c r="T24" s="219"/>
+      <c r="U24" s="219"/>
+      <c r="V24" s="219"/>
+      <c r="W24" s="219"/>
+      <c r="X24" s="219"/>
+      <c r="Y24" s="219"/>
+      <c r="Z24" s="219"/>
+      <c r="AA24" s="219"/>
+      <c r="AB24" s="219"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="219" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="219"/>
+      <c r="R25" s="219"/>
+      <c r="S25" s="219"/>
+      <c r="T25" s="219"/>
+      <c r="U25" s="219"/>
+      <c r="V25" s="219"/>
+      <c r="W25" s="219"/>
+      <c r="X25" s="219"/>
+      <c r="Y25" s="219"/>
+      <c r="Z25" s="219"/>
+      <c r="AA25" s="219"/>
+      <c r="AB25" s="219"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="219" t="s">
+        <v>540</v>
+      </c>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="219"/>
+      <c r="S26" s="219"/>
+      <c r="T26" s="219"/>
+      <c r="U26" s="219"/>
+      <c r="V26" s="219"/>
+      <c r="W26" s="219"/>
+      <c r="X26" s="219"/>
+      <c r="Y26" s="219"/>
+      <c r="Z26" s="219"/>
+      <c r="AA26" s="219"/>
+      <c r="AB26" s="219"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="271" t="s">
+        <v>617</v>
+      </c>
+      <c r="C27" s="236" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D27" s="236" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" s="236" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F27" s="236" t="n">
+        <v>40</v>
+      </c>
+      <c r="G27" s="236" t="n">
+        <v>49</v>
+      </c>
+      <c r="H27" s="236" t="n">
+        <v>54</v>
+      </c>
+      <c r="I27" s="236" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="J27" s="236" t="n">
+        <v>59</v>
+      </c>
+      <c r="K27" s="236" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="L27" s="236" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="M27" s="236" t="n">
+        <v>64</v>
+      </c>
+      <c r="N27" s="236" t="n">
+        <v>66</v>
+      </c>
+      <c r="O27" s="236" t="n">
+        <v>63</v>
+      </c>
+      <c r="P27" s="236" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="Q27" s="236" t="n">
+        <v>61</v>
+      </c>
+      <c r="R27" s="236" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="S27" s="236" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="T27" s="236" t="n">
+        <v>69</v>
+      </c>
+      <c r="U27" s="236" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="V27" s="236" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="W27" s="245" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="X27" s="245" t="n">
+        <v>73.44</v>
+      </c>
+      <c r="Y27" s="245" t="n">
+        <v>74.37</v>
+      </c>
+      <c r="Z27" s="245" t="n">
+        <v>75.26</v>
+      </c>
+      <c r="AA27" s="245" t="n">
+        <v>76.12</v>
+      </c>
+      <c r="AB27" s="245" t="n">
+        <v>76.94</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="219" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="265"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="H28" s="265"/>
+      <c r="I28" s="265"/>
+      <c r="J28" s="265"/>
+      <c r="K28" s="265"/>
+      <c r="L28" s="265"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="265"/>
+      <c r="O28" s="265"/>
+      <c r="P28" s="265"/>
+      <c r="Q28" s="265"/>
+      <c r="R28" s="265"/>
+      <c r="S28" s="265"/>
+      <c r="T28" s="265"/>
+      <c r="U28" s="265"/>
+      <c r="V28" s="237" t="n">
+        <v>20</v>
+      </c>
+      <c r="W28" s="237" t="n">
+        <v>60</v>
+      </c>
+      <c r="X28" s="237" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y28" s="246" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z28" s="246" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="246" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB28" s="246" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="219" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="266"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="266"/>
+      <c r="G29" s="266"/>
+      <c r="H29" s="266"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="266"/>
+      <c r="K29" s="266"/>
+      <c r="L29" s="266"/>
+      <c r="M29" s="266"/>
+      <c r="N29" s="266"/>
+      <c r="O29" s="266"/>
+      <c r="P29" s="266"/>
+      <c r="Q29" s="266"/>
+      <c r="R29" s="266"/>
+      <c r="S29" s="266"/>
+      <c r="T29" s="266"/>
+      <c r="U29" s="266"/>
+      <c r="V29" s="238" t="n">
+        <v>20</v>
+      </c>
+      <c r="W29" s="238" t="n">
+        <v>50</v>
+      </c>
+      <c r="X29" s="238" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y29" s="247" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="247" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA29" s="247" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="247" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="219" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="267"/>
+      <c r="K30" s="267"/>
+      <c r="L30" s="267"/>
+      <c r="M30" s="267"/>
+      <c r="N30" s="267"/>
+      <c r="O30" s="267"/>
+      <c r="P30" s="267"/>
+      <c r="Q30" s="267"/>
+      <c r="R30" s="267"/>
+      <c r="S30" s="267"/>
+      <c r="T30" s="267"/>
+      <c r="U30" s="267"/>
+      <c r="V30" s="239" t="n">
+        <v>100</v>
+      </c>
+      <c r="W30" s="239" t="n">
+        <v>90</v>
+      </c>
+      <c r="X30" s="239" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y30" s="248" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z30" s="248" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA30" s="248" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB30" s="248" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="271" t="s">
+        <v>618</v>
+      </c>
+      <c r="C31" s="268"/>
+      <c r="D31" s="268"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="268"/>
+      <c r="G31" s="268"/>
+      <c r="H31" s="268"/>
+      <c r="I31" s="268"/>
+      <c r="J31" s="268"/>
+      <c r="K31" s="268"/>
+      <c r="L31" s="268"/>
+      <c r="M31" s="268"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
+      <c r="P31" s="268"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="268"/>
+      <c r="S31" s="268"/>
+      <c r="T31" s="268"/>
+      <c r="U31" s="268"/>
+      <c r="V31" s="240" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="W31" s="240" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="X31" s="240" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="Y31" s="249" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="Z31" s="249" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AA31" s="249" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AB31" s="249" t="n">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="271" t="s">
+        <v>568</v>
+      </c>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="269"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="269"/>
+      <c r="K32" s="269"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="269"/>
+      <c r="N32" s="269"/>
+      <c r="O32" s="269"/>
+      <c r="P32" s="269"/>
+      <c r="Q32" s="269"/>
+      <c r="R32" s="269"/>
+      <c r="S32" s="269"/>
+      <c r="T32" s="269"/>
+      <c r="U32" s="241" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="V32" s="241" t="n">
+        <v>53.06</v>
+      </c>
+      <c r="W32" s="250" t="n">
+        <v>61.39</v>
+      </c>
+      <c r="X32" s="250" t="n">
+        <v>63.04</v>
+      </c>
+      <c r="Y32" s="250" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="Z32" s="250" t="n">
+        <v>65.64</v>
+      </c>
+      <c r="AA32" s="250" t="n">
+        <v>66.93</v>
+      </c>
+      <c r="AB32" s="250" t="n">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="217" t="s">
         <v>619</v>
-      </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="209"/>
-      <c r="Q19" s="209"/>
-      <c r="R19" s="209"/>
-      <c r="S19" s="209"/>
-      <c r="T19" s="209"/>
-      <c r="U19" s="209"/>
-      <c r="V19" s="209"/>
-      <c r="W19" s="209"/>
-      <c r="X19" s="209"/>
-      <c r="Y19" s="209"/>
-      <c r="Z19" s="209"/>
-      <c r="AA19" s="209"/>
-      <c r="AB19" s="209"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="209" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" s="210" t="n">
-        <v>24</v>
-      </c>
-      <c r="D20" s="210" t="n">
-        <v>35</v>
-      </c>
-      <c r="E20" s="210" t="n">
-        <v>36</v>
-      </c>
-      <c r="F20" s="210" t="n">
-        <v>41</v>
-      </c>
-      <c r="G20" s="210" t="n">
-        <v>50</v>
-      </c>
-      <c r="H20" s="210" t="n">
-        <v>58</v>
-      </c>
-      <c r="I20" s="210" t="n">
-        <v>58</v>
-      </c>
-      <c r="J20" s="210" t="n">
-        <v>63</v>
-      </c>
-      <c r="K20" s="210" t="n">
-        <v>64</v>
-      </c>
-      <c r="L20" s="210" t="n">
-        <v>63</v>
-      </c>
-      <c r="M20" s="210" t="n">
-        <v>66</v>
-      </c>
-      <c r="N20" s="210" t="n">
-        <v>68</v>
-      </c>
-      <c r="O20" s="210" t="n">
-        <v>67</v>
-      </c>
-      <c r="P20" s="210" t="n">
-        <v>64</v>
-      </c>
-      <c r="Q20" s="210" t="n">
-        <v>62</v>
-      </c>
-      <c r="R20" s="210" t="n">
-        <v>67</v>
-      </c>
-      <c r="S20" s="210" t="n">
-        <v>71</v>
-      </c>
-      <c r="T20" s="210" t="n">
-        <v>71</v>
-      </c>
-      <c r="U20" s="210" t="n">
-        <v>76</v>
-      </c>
-      <c r="V20" s="210" t="n">
-        <v>75</v>
-      </c>
-      <c r="W20" s="217" t="n">
-        <v>77.37</v>
-      </c>
-      <c r="X20" s="217" t="n">
-        <v>78.89</v>
-      </c>
-      <c r="Y20" s="217" t="n">
-        <v>80.35</v>
-      </c>
-      <c r="Z20" s="217" t="n">
-        <v>81.75</v>
-      </c>
-      <c r="AA20" s="217" t="n">
-        <v>83.08</v>
-      </c>
-      <c r="AB20" s="217" t="n">
-        <v>84.35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="209" t="s">
-        <v>529</v>
-      </c>
-      <c r="C21" s="211" t="n">
-        <v>27</v>
-      </c>
-      <c r="D21" s="211" t="n">
-        <v>37</v>
-      </c>
-      <c r="E21" s="211" t="n">
-        <v>35</v>
-      </c>
-      <c r="F21" s="211" t="n">
-        <v>39</v>
-      </c>
-      <c r="G21" s="211" t="n">
-        <v>48</v>
-      </c>
-      <c r="H21" s="211" t="n">
-        <v>50</v>
-      </c>
-      <c r="I21" s="211" t="n">
-        <v>53</v>
-      </c>
-      <c r="J21" s="211" t="n">
-        <v>55</v>
-      </c>
-      <c r="K21" s="211" t="n">
-        <v>59</v>
-      </c>
-      <c r="L21" s="211" t="n">
-        <v>60</v>
-      </c>
-      <c r="M21" s="211" t="n">
-        <v>62</v>
-      </c>
-      <c r="N21" s="211" t="n">
-        <v>64</v>
-      </c>
-      <c r="O21" s="211" t="n">
-        <v>59</v>
-      </c>
-      <c r="P21" s="211" t="n">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="211" t="n">
-        <v>60</v>
-      </c>
-      <c r="R21" s="211" t="n">
-        <v>62</v>
-      </c>
-      <c r="S21" s="211" t="n">
-        <v>64</v>
-      </c>
-      <c r="T21" s="211" t="n">
-        <v>67</v>
-      </c>
-      <c r="U21" s="211" t="n">
-        <v>71</v>
-      </c>
-      <c r="V21" s="211" t="n">
-        <v>64</v>
-      </c>
-      <c r="W21" s="218" t="n">
-        <v>67.6</v>
-      </c>
-      <c r="X21" s="218" t="n">
-        <v>67.99</v>
-      </c>
-      <c r="Y21" s="218" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="Z21" s="218" t="n">
-        <v>68.77</v>
-      </c>
-      <c r="AA21" s="218" t="n">
-        <v>69.15</v>
-      </c>
-      <c r="AB21" s="218" t="n">
-        <v>69.53</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="228" t="s">
-        <v>532</v>
-      </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="209"/>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
-      <c r="N22" s="209"/>
-      <c r="O22" s="209"/>
-      <c r="P22" s="209"/>
-      <c r="Q22" s="209"/>
-      <c r="R22" s="209"/>
-      <c r="S22" s="209"/>
-      <c r="T22" s="209"/>
-      <c r="U22" s="209"/>
-      <c r="V22" s="209"/>
-      <c r="W22" s="209"/>
-      <c r="X22" s="209"/>
-      <c r="Y22" s="209"/>
-      <c r="Z22" s="209"/>
-      <c r="AA22" s="209"/>
-      <c r="AB22" s="209"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="228" t="s">
-        <v>534</v>
-      </c>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="209"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="209"/>
-      <c r="O23" s="209"/>
-      <c r="P23" s="209"/>
-      <c r="Q23" s="209"/>
-      <c r="R23" s="209"/>
-      <c r="S23" s="209"/>
-      <c r="T23" s="209"/>
-      <c r="U23" s="209"/>
-      <c r="V23" s="209"/>
-      <c r="W23" s="209"/>
-      <c r="X23" s="209"/>
-      <c r="Y23" s="209"/>
-      <c r="Z23" s="209"/>
-      <c r="AA23" s="209"/>
-      <c r="AB23" s="209"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="209" t="s">
-        <v>536</v>
-      </c>
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="209"/>
-      <c r="P24" s="209"/>
-      <c r="Q24" s="209"/>
-      <c r="R24" s="209"/>
-      <c r="S24" s="209"/>
-      <c r="T24" s="209"/>
-      <c r="U24" s="209"/>
-      <c r="V24" s="209"/>
-      <c r="W24" s="209"/>
-      <c r="X24" s="209"/>
-      <c r="Y24" s="209"/>
-      <c r="Z24" s="209"/>
-      <c r="AA24" s="209"/>
-      <c r="AB24" s="209"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="209" t="s">
-        <v>538</v>
-      </c>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="209"/>
-      <c r="N25" s="209"/>
-      <c r="O25" s="209"/>
-      <c r="P25" s="209"/>
-      <c r="Q25" s="209"/>
-      <c r="R25" s="209"/>
-      <c r="S25" s="209"/>
-      <c r="T25" s="209"/>
-      <c r="U25" s="209"/>
-      <c r="V25" s="209"/>
-      <c r="W25" s="209"/>
-      <c r="X25" s="209"/>
-      <c r="Y25" s="209"/>
-      <c r="Z25" s="209"/>
-      <c r="AA25" s="209"/>
-      <c r="AB25" s="209"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="209" t="s">
-        <v>540</v>
-      </c>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="209"/>
-      <c r="L26" s="209"/>
-      <c r="M26" s="209"/>
-      <c r="N26" s="209"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="209"/>
-      <c r="R26" s="209"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="209"/>
-      <c r="U26" s="209"/>
-      <c r="V26" s="209"/>
-      <c r="W26" s="209"/>
-      <c r="X26" s="209"/>
-      <c r="Y26" s="209"/>
-      <c r="Z26" s="209"/>
-      <c r="AA26" s="209"/>
-      <c r="AB26" s="209"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="229" t="s">
-        <v>617</v>
-      </c>
-      <c r="C27" s="212" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="D27" s="212" t="n">
-        <v>36</v>
-      </c>
-      <c r="E27" s="212" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="F27" s="212" t="n">
-        <v>40</v>
-      </c>
-      <c r="G27" s="212" t="n">
-        <v>49</v>
-      </c>
-      <c r="H27" s="212" t="n">
-        <v>54</v>
-      </c>
-      <c r="I27" s="212" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="J27" s="212" t="n">
-        <v>59</v>
-      </c>
-      <c r="K27" s="212" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="L27" s="212" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="M27" s="212" t="n">
-        <v>64</v>
-      </c>
-      <c r="N27" s="212" t="n">
-        <v>66</v>
-      </c>
-      <c r="O27" s="212" t="n">
-        <v>63</v>
-      </c>
-      <c r="P27" s="212" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="Q27" s="212" t="n">
-        <v>61</v>
-      </c>
-      <c r="R27" s="212" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="S27" s="212" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="T27" s="212" t="n">
-        <v>69</v>
-      </c>
-      <c r="U27" s="212" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="V27" s="212" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="W27" s="219" t="n">
-        <v>72.48</v>
-      </c>
-      <c r="X27" s="219" t="n">
-        <v>73.44</v>
-      </c>
-      <c r="Y27" s="219" t="n">
-        <v>74.37</v>
-      </c>
-      <c r="Z27" s="219" t="n">
-        <v>75.26</v>
-      </c>
-      <c r="AA27" s="219" t="n">
-        <v>76.12</v>
-      </c>
-      <c r="AB27" s="219" t="n">
-        <v>76.94</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="209" t="s">
-        <v>544</v>
-      </c>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="224"/>
-      <c r="J28" s="224"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="224"/>
-      <c r="Q28" s="224"/>
-      <c r="R28" s="224"/>
-      <c r="S28" s="224"/>
-      <c r="T28" s="224"/>
-      <c r="U28" s="224"/>
-      <c r="V28" s="213" t="n">
-        <v>20</v>
-      </c>
-      <c r="W28" s="213" t="n">
-        <v>60</v>
-      </c>
-      <c r="X28" s="213" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y28" s="220" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z28" s="220" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA28" s="220" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB28" s="220" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="209" t="s">
-        <v>546</v>
-      </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="225"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="225"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="225"/>
-      <c r="R29" s="225"/>
-      <c r="S29" s="225"/>
-      <c r="T29" s="225"/>
-      <c r="U29" s="225"/>
-      <c r="V29" s="214" t="n">
-        <v>20</v>
-      </c>
-      <c r="W29" s="214" t="n">
-        <v>50</v>
-      </c>
-      <c r="X29" s="214" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y29" s="221" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z29" s="221" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA29" s="221" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB29" s="221" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="209" t="s">
-        <v>548</v>
-      </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="226"/>
-      <c r="L30" s="226"/>
-      <c r="M30" s="226"/>
-      <c r="N30" s="226"/>
-      <c r="O30" s="226"/>
-      <c r="P30" s="226"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="226"/>
-      <c r="S30" s="226"/>
-      <c r="T30" s="226"/>
-      <c r="U30" s="226"/>
-      <c r="V30" s="215" t="n">
-        <v>100</v>
-      </c>
-      <c r="W30" s="215" t="n">
-        <v>90</v>
-      </c>
-      <c r="X30" s="215" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y30" s="222" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z30" s="222" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA30" s="222" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB30" s="222" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="229" t="s">
-        <v>618</v>
-      </c>
-      <c r="C31" s="209"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="209"/>
-      <c r="O31" s="209"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="209"/>
-      <c r="R31" s="209"/>
-      <c r="S31" s="209"/>
-      <c r="T31" s="209"/>
-      <c r="U31" s="209"/>
-      <c r="V31" s="209"/>
-      <c r="W31" s="209"/>
-      <c r="X31" s="209"/>
-      <c r="Y31" s="209"/>
-      <c r="Z31" s="209"/>
-      <c r="AA31" s="209"/>
-      <c r="AB31" s="209"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="229" t="s">
-        <v>568</v>
-      </c>
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="227"/>
-      <c r="Q32" s="227"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="216" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="V32" s="216" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="W32" s="223" t="n">
-        <v>72.48</v>
-      </c>
-      <c r="X32" s="223" t="n">
-        <v>73.44</v>
-      </c>
-      <c r="Y32" s="223" t="n">
-        <v>74.37</v>
-      </c>
-      <c r="Z32" s="223" t="n">
-        <v>75.26</v>
-      </c>
-      <c r="AA32" s="223" t="n">
-        <v>76.12</v>
-      </c>
-      <c r="AB32" s="223" t="n">
-        <v>76.94</v>
       </c>
     </row>
   </sheetData>
@@ -15920,28 +16499,28 @@
       <c r="A5" s="159"/>
       <c r="B5" s="159"/>
       <c r="C5" s="164"/>
-      <c r="D5" s="208" t="s">
+      <c r="D5" s="218" t="s">
         <v>564</v>
       </c>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="218" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="208" t="s">
+      <c r="F5" s="218" t="s">
         <v>598</v>
       </c>
-      <c r="G5" s="208" t="s">
+      <c r="G5" s="218" t="s">
         <v>599</v>
       </c>
-      <c r="H5" s="208" t="s">
+      <c r="H5" s="218" t="s">
         <v>600</v>
       </c>
-      <c r="I5" s="208" t="s">
+      <c r="I5" s="218" t="s">
         <v>601</v>
       </c>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="218" t="s">
         <v>602</v>
       </c>
-      <c r="K5" s="208" t="s">
+      <c r="K5" s="218" t="s">
         <v>565</v>
       </c>
       <c r="L5" s="159"/>
@@ -15958,20 +16537,36 @@
     </row>
     <row r="6">
       <c r="A6" s="159"/>
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C6" s="206" t="s">
+      <c r="C6" s="216" t="s">
         <v>621</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="230"/>
+      <c r="D6" s="272" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" s="272" t="n">
+        <v>43</v>
+      </c>
+      <c r="F6" s="272" t="n">
+        <v>47</v>
+      </c>
+      <c r="G6" s="272" t="n">
+        <v>49</v>
+      </c>
+      <c r="H6" s="272" t="n">
+        <v>52</v>
+      </c>
+      <c r="I6" s="272" t="n">
+        <v>55</v>
+      </c>
+      <c r="J6" s="272" t="n">
+        <v>58</v>
+      </c>
+      <c r="K6" s="272" t="n">
+        <v>61</v>
+      </c>
       <c r="L6" s="159"/>
       <c r="M6" s="159"/>
       <c r="N6" s="159"/>
@@ -15984,20 +16579,36 @@
     </row>
     <row r="7" outlineLevel="1" hidden="0">
       <c r="A7" s="159"/>
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C7" s="230" t="s">
+      <c r="C7" s="272" t="s">
         <v>621</v>
       </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="230"/>
+      <c r="D7" s="273" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" s="273" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" s="273" t="n">
+        <v>47</v>
+      </c>
+      <c r="G7" s="291" t="n">
+        <v>47</v>
+      </c>
+      <c r="H7" s="291" t="n">
+        <v>50</v>
+      </c>
+      <c r="I7" s="291" t="n">
+        <v>53</v>
+      </c>
+      <c r="J7" s="291" t="n">
+        <v>56</v>
+      </c>
+      <c r="K7" s="291" t="n">
+        <v>59</v>
+      </c>
       <c r="L7" s="159"/>
       <c r="M7" s="159"/>
       <c r="N7" s="159"/>
@@ -16010,20 +16621,30 @@
     </row>
     <row r="8" outlineLevel="1" hidden="0">
       <c r="A8" s="159"/>
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C8" s="230" t="s">
+      <c r="C8" s="272" t="s">
         <v>621</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="230"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="274"/>
+      <c r="F8" s="274"/>
+      <c r="G8" s="292" t="n">
+        <v>49</v>
+      </c>
+      <c r="H8" s="292" t="n">
+        <v>52</v>
+      </c>
+      <c r="I8" s="292" t="n">
+        <v>55</v>
+      </c>
+      <c r="J8" s="292" t="n">
+        <v>58</v>
+      </c>
+      <c r="K8" s="292" t="n">
+        <v>61</v>
+      </c>
       <c r="L8" s="159"/>
       <c r="M8" s="159"/>
       <c r="N8" s="159"/>
@@ -16036,34 +16657,34 @@
     </row>
     <row r="9">
       <c r="A9" s="159"/>
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="216" t="s">
         <v>527</v>
       </c>
-      <c r="D9" s="230" t="n">
+      <c r="D9" s="318" t="n">
         <v>76</v>
       </c>
-      <c r="E9" s="230" t="n">
+      <c r="E9" s="318" t="n">
         <v>75</v>
       </c>
-      <c r="F9" s="230" t="n">
-        <v>77.37</v>
-      </c>
-      <c r="G9" s="230" t="n">
+      <c r="F9" s="318" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" s="293" t="n">
         <v>78.89</v>
       </c>
-      <c r="H9" s="230" t="n">
+      <c r="H9" s="293" t="n">
         <v>80.35</v>
       </c>
-      <c r="I9" s="230" t="n">
+      <c r="I9" s="293" t="n">
         <v>81.75</v>
       </c>
-      <c r="J9" s="230" t="n">
+      <c r="J9" s="293" t="n">
         <v>83.08</v>
       </c>
-      <c r="K9" s="230" t="n">
+      <c r="K9" s="293" t="n">
         <v>84.35</v>
       </c>
       <c r="L9" s="159"/>
@@ -16078,34 +16699,34 @@
     </row>
     <row r="10" outlineLevel="1" hidden="0">
       <c r="A10" s="159"/>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C10" s="230" t="s">
+      <c r="C10" s="272" t="s">
         <v>527</v>
       </c>
-      <c r="D10" s="230" t="n">
+      <c r="D10" s="272" t="n">
         <v>76</v>
       </c>
-      <c r="E10" s="230" t="n">
+      <c r="E10" s="272" t="n">
         <v>75</v>
       </c>
-      <c r="F10" s="230" t="n">
-        <v>77.37</v>
-      </c>
-      <c r="G10" s="230" t="n">
+      <c r="F10" s="272" t="n">
+        <v>75</v>
+      </c>
+      <c r="G10" s="272" t="n">
         <v>78.89</v>
       </c>
-      <c r="H10" s="230" t="n">
+      <c r="H10" s="272" t="n">
         <v>80.35</v>
       </c>
-      <c r="I10" s="230" t="n">
+      <c r="I10" s="272" t="n">
         <v>81.75</v>
       </c>
-      <c r="J10" s="230" t="n">
+      <c r="J10" s="272" t="n">
         <v>83.08</v>
       </c>
-      <c r="K10" s="230" t="n">
+      <c r="K10" s="272" t="n">
         <v>84.35</v>
       </c>
       <c r="L10" s="159"/>
@@ -16120,35 +16741,29 @@
     </row>
     <row r="11" outlineLevel="1" hidden="0">
       <c r="A11" s="159"/>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C11" s="230" t="s">
+      <c r="C11" s="272" t="s">
         <v>527</v>
       </c>
-      <c r="D11" s="230" t="n">
-        <v>76</v>
-      </c>
-      <c r="E11" s="230" t="n">
-        <v>76</v>
-      </c>
-      <c r="F11" s="230" t="n">
-        <v>76</v>
-      </c>
-      <c r="G11" s="230" t="n">
-        <v>76</v>
-      </c>
-      <c r="H11" s="230" t="n">
-        <v>76</v>
-      </c>
-      <c r="I11" s="230" t="n">
-        <v>76</v>
-      </c>
-      <c r="J11" s="230" t="n">
-        <v>76</v>
-      </c>
-      <c r="K11" s="230" t="n">
-        <v>76</v>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="H11" s="272" t="n">
+        <v>80.35</v>
+      </c>
+      <c r="I11" s="272" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="J11" s="272" t="n">
+        <v>83.08</v>
+      </c>
+      <c r="K11" s="272" t="n">
+        <v>84.35</v>
       </c>
       <c r="L11" s="159"/>
       <c r="M11" s="159"/>
@@ -16162,34 +16777,34 @@
     </row>
     <row r="12">
       <c r="A12" s="159"/>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C12" s="206" t="s">
+      <c r="C12" s="216" t="s">
         <v>529</v>
       </c>
-      <c r="D12" s="230" t="n">
+      <c r="D12" s="272" t="n">
         <v>71</v>
       </c>
-      <c r="E12" s="230" t="n">
+      <c r="E12" s="272" t="n">
         <v>64</v>
       </c>
-      <c r="F12" s="230" t="n">
-        <v>67.6</v>
-      </c>
-      <c r="G12" s="230" t="n">
+      <c r="F12" s="272" t="n">
+        <v>66</v>
+      </c>
+      <c r="G12" s="272" t="n">
         <v>67.99</v>
       </c>
-      <c r="H12" s="230" t="n">
+      <c r="H12" s="272" t="n">
         <v>68.38</v>
       </c>
-      <c r="I12" s="230" t="n">
+      <c r="I12" s="272" t="n">
         <v>68.77</v>
       </c>
-      <c r="J12" s="230" t="n">
+      <c r="J12" s="272" t="n">
         <v>69.15</v>
       </c>
-      <c r="K12" s="230" t="n">
+      <c r="K12" s="272" t="n">
         <v>69.53</v>
       </c>
       <c r="L12" s="159"/>
@@ -16204,34 +16819,34 @@
     </row>
     <row r="13" outlineLevel="1" hidden="0">
       <c r="A13" s="159"/>
-      <c r="B13" s="230" t="s">
+      <c r="B13" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="272" t="s">
         <v>529</v>
       </c>
-      <c r="D13" s="230" t="n">
+      <c r="D13" s="272" t="n">
         <v>71</v>
       </c>
-      <c r="E13" s="230" t="n">
+      <c r="E13" s="272" t="n">
         <v>64</v>
       </c>
-      <c r="F13" s="230" t="n">
-        <v>67.6</v>
-      </c>
-      <c r="G13" s="230" t="n">
+      <c r="F13" s="272" t="n">
+        <v>66</v>
+      </c>
+      <c r="G13" s="272" t="n">
         <v>67.99</v>
       </c>
-      <c r="H13" s="230" t="n">
+      <c r="H13" s="272" t="n">
         <v>68.38</v>
       </c>
-      <c r="I13" s="230" t="n">
+      <c r="I13" s="272" t="n">
         <v>68.77</v>
       </c>
-      <c r="J13" s="230" t="n">
+      <c r="J13" s="272" t="n">
         <v>69.15</v>
       </c>
-      <c r="K13" s="230" t="n">
+      <c r="K13" s="272" t="n">
         <v>69.53</v>
       </c>
       <c r="L13" s="159"/>
@@ -16246,35 +16861,29 @@
     </row>
     <row r="14" outlineLevel="1" hidden="0">
       <c r="A14" s="159"/>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C14" s="230" t="s">
+      <c r="C14" s="272" t="s">
         <v>529</v>
       </c>
-      <c r="D14" s="230" t="n">
-        <v>71</v>
-      </c>
-      <c r="E14" s="230" t="n">
-        <v>71</v>
-      </c>
-      <c r="F14" s="230" t="n">
-        <v>71</v>
-      </c>
-      <c r="G14" s="230" t="n">
-        <v>71</v>
-      </c>
-      <c r="H14" s="230" t="n">
-        <v>71</v>
-      </c>
-      <c r="I14" s="230" t="n">
-        <v>71</v>
-      </c>
-      <c r="J14" s="230" t="n">
-        <v>71</v>
-      </c>
-      <c r="K14" s="230" t="n">
-        <v>71</v>
+      <c r="D14" s="272"/>
+      <c r="E14" s="272"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="272" t="n">
+        <v>67.99</v>
+      </c>
+      <c r="H14" s="272" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="I14" s="272" t="n">
+        <v>68.77</v>
+      </c>
+      <c r="J14" s="272" t="n">
+        <v>69.15</v>
+      </c>
+      <c r="K14" s="272" t="n">
+        <v>69.53</v>
       </c>
       <c r="L14" s="159"/>
       <c r="M14" s="159"/>
@@ -16288,20 +16897,20 @@
     </row>
     <row r="15">
       <c r="A15" s="159"/>
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="270" t="s">
         <v>620</v>
       </c>
-      <c r="C15" s="228" t="s">
+      <c r="C15" s="270" t="s">
         <v>532</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="230"/>
-      <c r="K15" s="230"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="272"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="272"/>
+      <c r="H15" s="272"/>
+      <c r="I15" s="272"/>
+      <c r="J15" s="272"/>
+      <c r="K15" s="272"/>
       <c r="L15" s="159"/>
       <c r="M15" s="159"/>
       <c r="N15" s="159"/>
@@ -16314,20 +16923,20 @@
     </row>
     <row r="16" outlineLevel="1" hidden="0">
       <c r="A16" s="159"/>
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="270" t="s">
         <v>622</v>
       </c>
-      <c r="C16" s="228" t="s">
+      <c r="C16" s="270" t="s">
         <v>532</v>
       </c>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="230"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="272"/>
+      <c r="I16" s="272"/>
+      <c r="J16" s="272"/>
+      <c r="K16" s="272"/>
       <c r="L16" s="159"/>
       <c r="M16" s="159"/>
       <c r="N16" s="159"/>
@@ -16340,20 +16949,20 @@
     </row>
     <row r="17" outlineLevel="1" hidden="0">
       <c r="A17" s="159"/>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="270" t="s">
         <v>623</v>
       </c>
-      <c r="C17" s="228" t="s">
+      <c r="C17" s="270" t="s">
         <v>532</v>
       </c>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="230"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="272"/>
+      <c r="I17" s="272"/>
+      <c r="J17" s="272"/>
+      <c r="K17" s="272"/>
       <c r="L17" s="159"/>
       <c r="M17" s="159"/>
       <c r="N17" s="159"/>
@@ -16366,20 +16975,20 @@
     </row>
     <row r="18">
       <c r="A18" s="159"/>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="270" t="s">
         <v>620</v>
       </c>
-      <c r="C18" s="228" t="s">
+      <c r="C18" s="270" t="s">
         <v>534</v>
       </c>
-      <c r="D18" s="230"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="230"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="230"/>
-      <c r="I18" s="230"/>
-      <c r="J18" s="230"/>
-      <c r="K18" s="230"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="272"/>
+      <c r="I18" s="272"/>
+      <c r="J18" s="272"/>
+      <c r="K18" s="272"/>
       <c r="L18" s="159"/>
       <c r="M18" s="159"/>
       <c r="N18" s="159"/>
@@ -16392,20 +17001,20 @@
     </row>
     <row r="19" outlineLevel="1" hidden="0">
       <c r="A19" s="159"/>
-      <c r="B19" s="228" t="s">
+      <c r="B19" s="270" t="s">
         <v>622</v>
       </c>
-      <c r="C19" s="228" t="s">
+      <c r="C19" s="270" t="s">
         <v>534</v>
       </c>
-      <c r="D19" s="230"/>
-      <c r="E19" s="230"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
+      <c r="I19" s="272"/>
+      <c r="J19" s="272"/>
+      <c r="K19" s="272"/>
       <c r="L19" s="159"/>
       <c r="M19" s="159"/>
       <c r="N19" s="159"/>
@@ -16418,20 +17027,20 @@
     </row>
     <row r="20" outlineLevel="1" hidden="0">
       <c r="A20" s="159"/>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="270" t="s">
         <v>623</v>
       </c>
-      <c r="C20" s="228" t="s">
+      <c r="C20" s="270" t="s">
         <v>534</v>
       </c>
-      <c r="D20" s="230"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="272"/>
+      <c r="H20" s="272"/>
+      <c r="I20" s="272"/>
+      <c r="J20" s="272"/>
+      <c r="K20" s="272"/>
       <c r="L20" s="159"/>
       <c r="M20" s="159"/>
       <c r="N20" s="159"/>
@@ -16444,20 +17053,20 @@
     </row>
     <row r="21">
       <c r="A21" s="159"/>
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C21" s="206" t="s">
+      <c r="C21" s="216" t="s">
         <v>536</v>
       </c>
-      <c r="D21" s="231"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="249"/>
-      <c r="K21" s="249"/>
+      <c r="D21" s="272"/>
+      <c r="E21" s="272"/>
+      <c r="F21" s="272"/>
+      <c r="G21" s="272"/>
+      <c r="H21" s="272"/>
+      <c r="I21" s="272"/>
+      <c r="J21" s="272"/>
+      <c r="K21" s="272"/>
       <c r="L21" s="159"/>
       <c r="M21" s="159"/>
       <c r="N21" s="159"/>
@@ -16470,20 +17079,20 @@
     </row>
     <row r="22" outlineLevel="1" hidden="0">
       <c r="A22" s="159"/>
-      <c r="B22" s="230" t="s">
+      <c r="B22" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C22" s="230" t="s">
+      <c r="C22" s="272" t="s">
         <v>536</v>
       </c>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="250"/>
-      <c r="G22" s="250"/>
-      <c r="H22" s="250"/>
-      <c r="I22" s="250"/>
-      <c r="J22" s="250"/>
-      <c r="K22" s="250"/>
+      <c r="D22" s="272"/>
+      <c r="E22" s="272"/>
+      <c r="F22" s="272"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="272"/>
+      <c r="I22" s="272"/>
+      <c r="J22" s="272"/>
+      <c r="K22" s="272"/>
       <c r="L22" s="159"/>
       <c r="M22" s="159"/>
       <c r="N22" s="159"/>
@@ -16496,20 +17105,20 @@
     </row>
     <row r="23" outlineLevel="1" hidden="0">
       <c r="A23" s="159"/>
-      <c r="B23" s="230" t="s">
+      <c r="B23" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C23" s="230" t="s">
+      <c r="C23" s="272" t="s">
         <v>536</v>
       </c>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="251"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="294"/>
+      <c r="J23" s="294"/>
+      <c r="K23" s="294"/>
       <c r="L23" s="159"/>
       <c r="M23" s="159"/>
       <c r="N23" s="159"/>
@@ -16522,20 +17131,20 @@
     </row>
     <row r="24">
       <c r="A24" s="159"/>
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C24" s="206" t="s">
+      <c r="C24" s="216" t="s">
         <v>538</v>
       </c>
-      <c r="D24" s="234"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="252"/>
-      <c r="K24" s="252"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="276"/>
+      <c r="G24" s="295"/>
+      <c r="H24" s="295"/>
+      <c r="I24" s="295"/>
+      <c r="J24" s="295"/>
+      <c r="K24" s="295"/>
       <c r="L24" s="159"/>
       <c r="M24" s="159"/>
       <c r="N24" s="159"/>
@@ -16548,20 +17157,20 @@
     </row>
     <row r="25" outlineLevel="1" hidden="0">
       <c r="A25" s="159"/>
-      <c r="B25" s="230" t="s">
+      <c r="B25" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C25" s="230" t="s">
+      <c r="C25" s="272" t="s">
         <v>538</v>
       </c>
-      <c r="D25" s="235"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="253"/>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="296"/>
+      <c r="J25" s="296"/>
+      <c r="K25" s="296"/>
       <c r="L25" s="159"/>
       <c r="M25" s="159"/>
       <c r="N25" s="159"/>
@@ -16574,20 +17183,20 @@
     </row>
     <row r="26" outlineLevel="1" hidden="0">
       <c r="A26" s="159"/>
-      <c r="B26" s="230" t="s">
+      <c r="B26" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C26" s="230" t="s">
+      <c r="C26" s="272" t="s">
         <v>538</v>
       </c>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="254"/>
-      <c r="K26" s="254"/>
+      <c r="D26" s="277"/>
+      <c r="E26" s="277"/>
+      <c r="F26" s="277"/>
+      <c r="G26" s="297"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="297"/>
+      <c r="J26" s="297"/>
+      <c r="K26" s="297"/>
       <c r="L26" s="159"/>
       <c r="M26" s="159"/>
       <c r="N26" s="159"/>
@@ -16600,20 +17209,20 @@
     </row>
     <row r="27">
       <c r="A27" s="159"/>
-      <c r="B27" s="206" t="s">
+      <c r="B27" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="206" t="s">
+      <c r="C27" s="216" t="s">
         <v>540</v>
       </c>
-      <c r="D27" s="230"/>
-      <c r="E27" s="230"/>
-      <c r="F27" s="230"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="230"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="230"/>
-      <c r="K27" s="230"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="298"/>
+      <c r="I27" s="298"/>
+      <c r="J27" s="298"/>
+      <c r="K27" s="298"/>
       <c r="L27" s="159"/>
       <c r="M27" s="159"/>
       <c r="N27" s="159"/>
@@ -16626,20 +17235,20 @@
     </row>
     <row r="28" outlineLevel="1" hidden="0">
       <c r="A28" s="159"/>
-      <c r="B28" s="230" t="s">
+      <c r="B28" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C28" s="230" t="s">
+      <c r="C28" s="272" t="s">
         <v>540</v>
       </c>
-      <c r="D28" s="230"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
-      <c r="K28" s="230"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="299"/>
+      <c r="I28" s="299"/>
+      <c r="J28" s="299"/>
+      <c r="K28" s="299"/>
       <c r="L28" s="159"/>
       <c r="M28" s="159"/>
       <c r="N28" s="159"/>
@@ -16652,20 +17261,20 @@
     </row>
     <row r="29" outlineLevel="1" hidden="0">
       <c r="A29" s="159"/>
-      <c r="B29" s="230" t="s">
+      <c r="B29" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C29" s="230" t="s">
+      <c r="C29" s="272" t="s">
         <v>540</v>
       </c>
-      <c r="D29" s="230"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="272"/>
+      <c r="I29" s="272"/>
+      <c r="J29" s="272"/>
+      <c r="K29" s="272"/>
       <c r="L29" s="159"/>
       <c r="M29" s="159"/>
       <c r="N29" s="159"/>
@@ -16678,20 +17287,20 @@
     </row>
     <row r="30">
       <c r="A30" s="159"/>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C30" s="216" t="s">
         <v>617</v>
       </c>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="230"/>
-      <c r="K30" s="230"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="272"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="272"/>
+      <c r="K30" s="272"/>
       <c r="L30" s="159"/>
       <c r="M30" s="159"/>
       <c r="N30" s="159"/>
@@ -16704,20 +17313,20 @@
     </row>
     <row r="31" outlineLevel="1" hidden="0">
       <c r="A31" s="159"/>
-      <c r="B31" s="230" t="s">
+      <c r="B31" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C31" s="230" t="s">
+      <c r="C31" s="272" t="s">
         <v>617</v>
       </c>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="230"/>
-      <c r="K31" s="230"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="272"/>
+      <c r="I31" s="272"/>
+      <c r="J31" s="272"/>
+      <c r="K31" s="272"/>
       <c r="L31" s="159"/>
       <c r="M31" s="159"/>
       <c r="N31" s="159"/>
@@ -16730,20 +17339,20 @@
     </row>
     <row r="32" outlineLevel="1" hidden="0">
       <c r="A32" s="159"/>
-      <c r="B32" s="230" t="s">
+      <c r="B32" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C32" s="230" t="s">
+      <c r="C32" s="272" t="s">
         <v>617</v>
       </c>
-      <c r="D32" s="237"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="255"/>
-      <c r="G32" s="255"/>
-      <c r="H32" s="255"/>
-      <c r="I32" s="255"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="255"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="272"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="272"/>
+      <c r="H32" s="272"/>
+      <c r="I32" s="272"/>
+      <c r="J32" s="272"/>
+      <c r="K32" s="272"/>
       <c r="L32" s="159"/>
       <c r="M32" s="159"/>
       <c r="N32" s="159"/>
@@ -16756,32 +17365,32 @@
     </row>
     <row r="33">
       <c r="A33" s="159"/>
-      <c r="B33" s="206" t="s">
+      <c r="B33" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C33" s="206" t="s">
+      <c r="C33" s="216" t="s">
         <v>544</v>
       </c>
-      <c r="D33" s="238"/>
-      <c r="E33" s="238" t="n">
+      <c r="D33" s="272"/>
+      <c r="E33" s="272" t="n">
         <v>20</v>
       </c>
-      <c r="F33" s="256" t="n">
+      <c r="F33" s="272" t="n">
         <v>60</v>
       </c>
-      <c r="G33" s="256" t="n">
+      <c r="G33" s="272" t="n">
         <v>60</v>
       </c>
-      <c r="H33" s="256" t="n">
+      <c r="H33" s="272" t="n">
         <v>60</v>
       </c>
-      <c r="I33" s="256" t="n">
+      <c r="I33" s="272" t="n">
         <v>60</v>
       </c>
-      <c r="J33" s="256" t="n">
+      <c r="J33" s="272" t="n">
         <v>60</v>
       </c>
-      <c r="K33" s="256" t="n">
+      <c r="K33" s="272" t="n">
         <v>60</v>
       </c>
       <c r="L33" s="159"/>
@@ -16796,32 +17405,32 @@
     </row>
     <row r="34" outlineLevel="1" hidden="0">
       <c r="A34" s="159"/>
-      <c r="B34" s="230" t="s">
+      <c r="B34" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C34" s="230" t="s">
+      <c r="C34" s="272" t="s">
         <v>544</v>
       </c>
-      <c r="D34" s="239"/>
-      <c r="E34" s="239" t="n">
+      <c r="D34" s="279"/>
+      <c r="E34" s="279" t="n">
         <v>20</v>
       </c>
-      <c r="F34" s="257" t="n">
+      <c r="F34" s="300" t="n">
         <v>60</v>
       </c>
-      <c r="G34" s="257" t="n">
+      <c r="G34" s="300" t="n">
         <v>60</v>
       </c>
-      <c r="H34" s="257" t="n">
+      <c r="H34" s="300" t="n">
         <v>60</v>
       </c>
-      <c r="I34" s="257" t="n">
+      <c r="I34" s="300" t="n">
         <v>60</v>
       </c>
-      <c r="J34" s="257" t="n">
+      <c r="J34" s="300" t="n">
         <v>60</v>
       </c>
-      <c r="K34" s="257" t="n">
+      <c r="K34" s="300" t="n">
         <v>60</v>
       </c>
       <c r="L34" s="159"/>
@@ -16836,20 +17445,28 @@
     </row>
     <row r="35" outlineLevel="1" hidden="0">
       <c r="A35" s="159"/>
-      <c r="B35" s="230" t="s">
+      <c r="B35" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C35" s="230" t="s">
+      <c r="C35" s="272" t="s">
         <v>544</v>
       </c>
-      <c r="D35" s="267"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="240"/>
-      <c r="H35" s="258"/>
-      <c r="I35" s="258"/>
-      <c r="J35" s="258"/>
-      <c r="K35" s="258"/>
+      <c r="D35" s="280"/>
+      <c r="E35" s="280"/>
+      <c r="F35" s="301"/>
+      <c r="G35" s="301"/>
+      <c r="H35" s="301" t="n">
+        <v>60</v>
+      </c>
+      <c r="I35" s="301" t="n">
+        <v>60</v>
+      </c>
+      <c r="J35" s="301" t="n">
+        <v>60</v>
+      </c>
+      <c r="K35" s="301" t="n">
+        <v>60</v>
+      </c>
       <c r="L35" s="159"/>
       <c r="M35" s="159"/>
       <c r="N35" s="159"/>
@@ -16862,32 +17479,32 @@
     </row>
     <row r="36">
       <c r="A36" s="159"/>
-      <c r="B36" s="206" t="s">
+      <c r="B36" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C36" s="206" t="s">
+      <c r="C36" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="D36" s="268"/>
-      <c r="E36" s="241" t="n">
+      <c r="D36" s="321"/>
+      <c r="E36" s="321" t="n">
         <v>20</v>
       </c>
-      <c r="F36" s="241" t="n">
+      <c r="F36" s="321" t="n">
         <v>50</v>
       </c>
-      <c r="G36" s="241" t="n">
+      <c r="G36" s="302" t="n">
         <v>50</v>
       </c>
-      <c r="H36" s="259" t="n">
+      <c r="H36" s="302" t="n">
         <v>50</v>
       </c>
-      <c r="I36" s="259" t="n">
+      <c r="I36" s="302" t="n">
         <v>50</v>
       </c>
-      <c r="J36" s="259" t="n">
+      <c r="J36" s="302" t="n">
         <v>50</v>
       </c>
-      <c r="K36" s="259" t="n">
+      <c r="K36" s="302" t="n">
         <v>50</v>
       </c>
       <c r="L36" s="159"/>
@@ -16902,32 +17519,32 @@
     </row>
     <row r="37" outlineLevel="1" hidden="0">
       <c r="A37" s="159"/>
-      <c r="B37" s="230" t="s">
+      <c r="B37" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C37" s="230" t="s">
+      <c r="C37" s="272" t="s">
         <v>546</v>
       </c>
-      <c r="D37" s="269"/>
-      <c r="E37" s="242" t="n">
+      <c r="D37" s="322"/>
+      <c r="E37" s="281" t="n">
         <v>20</v>
       </c>
-      <c r="F37" s="242" t="n">
+      <c r="F37" s="281" t="n">
         <v>50</v>
       </c>
-      <c r="G37" s="242" t="n">
+      <c r="G37" s="281" t="n">
         <v>50</v>
       </c>
-      <c r="H37" s="260" t="n">
+      <c r="H37" s="303" t="n">
         <v>50</v>
       </c>
-      <c r="I37" s="260" t="n">
+      <c r="I37" s="303" t="n">
         <v>50</v>
       </c>
-      <c r="J37" s="260" t="n">
+      <c r="J37" s="303" t="n">
         <v>50</v>
       </c>
-      <c r="K37" s="260" t="n">
+      <c r="K37" s="303" t="n">
         <v>50</v>
       </c>
       <c r="L37" s="159"/>
@@ -16942,20 +17559,28 @@
     </row>
     <row r="38" outlineLevel="1" hidden="0">
       <c r="A38" s="159"/>
-      <c r="B38" s="230" t="s">
+      <c r="B38" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C38" s="230" t="s">
+      <c r="C38" s="272" t="s">
         <v>546</v>
       </c>
-      <c r="D38" s="270"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="243"/>
-      <c r="G38" s="243"/>
-      <c r="H38" s="261"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="261"/>
-      <c r="K38" s="261"/>
+      <c r="D38" s="323"/>
+      <c r="E38" s="282"/>
+      <c r="F38" s="282"/>
+      <c r="G38" s="282"/>
+      <c r="H38" s="304" t="n">
+        <v>50</v>
+      </c>
+      <c r="I38" s="304" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" s="304" t="n">
+        <v>50</v>
+      </c>
+      <c r="K38" s="304" t="n">
+        <v>50</v>
+      </c>
       <c r="L38" s="159"/>
       <c r="M38" s="159"/>
       <c r="N38" s="159"/>
@@ -16968,32 +17593,32 @@
     </row>
     <row r="39">
       <c r="A39" s="159"/>
-      <c r="B39" s="206" t="s">
+      <c r="B39" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C39" s="206" t="s">
+      <c r="C39" s="216" t="s">
         <v>548</v>
       </c>
-      <c r="D39" s="271"/>
-      <c r="E39" s="244" t="n">
+      <c r="D39" s="324"/>
+      <c r="E39" s="324" t="n">
         <v>100</v>
       </c>
-      <c r="F39" s="244" t="n">
+      <c r="F39" s="324" t="n">
         <v>90</v>
       </c>
-      <c r="G39" s="244" t="n">
+      <c r="G39" s="324" t="n">
         <v>90</v>
       </c>
-      <c r="H39" s="262" t="n">
+      <c r="H39" s="305" t="n">
         <v>90</v>
       </c>
-      <c r="I39" s="262" t="n">
+      <c r="I39" s="305" t="n">
         <v>90</v>
       </c>
-      <c r="J39" s="262" t="n">
+      <c r="J39" s="305" t="n">
         <v>90</v>
       </c>
-      <c r="K39" s="262" t="n">
+      <c r="K39" s="305" t="n">
         <v>90</v>
       </c>
       <c r="L39" s="159"/>
@@ -17008,32 +17633,32 @@
     </row>
     <row r="40" outlineLevel="1" hidden="0">
       <c r="A40" s="159"/>
-      <c r="B40" s="230" t="s">
+      <c r="B40" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C40" s="230" t="s">
+      <c r="C40" s="272" t="s">
         <v>548</v>
       </c>
-      <c r="D40" s="272"/>
-      <c r="E40" s="245" t="n">
+      <c r="D40" s="325"/>
+      <c r="E40" s="283" t="n">
         <v>100</v>
       </c>
-      <c r="F40" s="245" t="n">
+      <c r="F40" s="283" t="n">
         <v>90</v>
       </c>
-      <c r="G40" s="245" t="n">
+      <c r="G40" s="283" t="n">
         <v>90</v>
       </c>
-      <c r="H40" s="263" t="n">
+      <c r="H40" s="306" t="n">
         <v>90</v>
       </c>
-      <c r="I40" s="263" t="n">
+      <c r="I40" s="306" t="n">
         <v>90</v>
       </c>
-      <c r="J40" s="263" t="n">
+      <c r="J40" s="306" t="n">
         <v>90</v>
       </c>
-      <c r="K40" s="263" t="n">
+      <c r="K40" s="306" t="n">
         <v>90</v>
       </c>
       <c r="L40" s="159"/>
@@ -17048,20 +17673,28 @@
     </row>
     <row r="41" outlineLevel="1" hidden="0">
       <c r="A41" s="159"/>
-      <c r="B41" s="230" t="s">
+      <c r="B41" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C41" s="230" t="s">
+      <c r="C41" s="272" t="s">
         <v>548</v>
       </c>
-      <c r="D41" s="230"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="230"/>
-      <c r="K41" s="230"/>
+      <c r="D41" s="326"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
+      <c r="H41" s="307" t="n">
+        <v>90</v>
+      </c>
+      <c r="I41" s="307" t="n">
+        <v>90</v>
+      </c>
+      <c r="J41" s="307" t="n">
+        <v>90</v>
+      </c>
+      <c r="K41" s="307" t="n">
+        <v>90</v>
+      </c>
       <c r="L41" s="159"/>
       <c r="M41" s="159"/>
       <c r="N41" s="159"/>
@@ -17074,20 +17707,34 @@
     </row>
     <row r="42">
       <c r="A42" s="159"/>
-      <c r="B42" s="206" t="s">
+      <c r="B42" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C42" s="206" t="s">
+      <c r="C42" s="216" t="s">
         <v>618</v>
       </c>
-      <c r="D42" s="246"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="264"/>
-      <c r="G42" s="264"/>
-      <c r="H42" s="264"/>
-      <c r="I42" s="264"/>
-      <c r="J42" s="264"/>
-      <c r="K42" s="264"/>
+      <c r="D42" s="327"/>
+      <c r="E42" s="327" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="F42" s="327" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="G42" s="327" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H42" s="308" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="I42" s="308" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="J42" s="308" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="K42" s="308" t="n">
+        <v>66.67</v>
+      </c>
       <c r="L42" s="159"/>
       <c r="M42" s="159"/>
       <c r="N42" s="159"/>
@@ -17100,20 +17747,34 @@
     </row>
     <row r="43" outlineLevel="1" hidden="0">
       <c r="A43" s="159"/>
-      <c r="B43" s="230" t="s">
+      <c r="B43" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C43" s="230" t="s">
+      <c r="C43" s="272" t="s">
         <v>618</v>
       </c>
-      <c r="D43" s="247"/>
-      <c r="E43" s="247"/>
-      <c r="F43" s="265"/>
-      <c r="G43" s="265"/>
-      <c r="H43" s="265"/>
-      <c r="I43" s="265"/>
-      <c r="J43" s="265"/>
-      <c r="K43" s="265"/>
+      <c r="D43" s="328"/>
+      <c r="E43" s="285" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="F43" s="285" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="G43" s="285" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H43" s="309" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="I43" s="309" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="J43" s="309" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="K43" s="309" t="n">
+        <v>66.67</v>
+      </c>
       <c r="L43" s="159"/>
       <c r="M43" s="159"/>
       <c r="N43" s="159"/>
@@ -17126,20 +17787,28 @@
     </row>
     <row r="44" outlineLevel="1" hidden="0">
       <c r="A44" s="159"/>
-      <c r="B44" s="230" t="s">
+      <c r="B44" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C44" s="230" t="s">
+      <c r="C44" s="272" t="s">
         <v>618</v>
       </c>
-      <c r="D44" s="248"/>
-      <c r="E44" s="248"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
-      <c r="H44" s="266"/>
-      <c r="I44" s="266"/>
-      <c r="J44" s="266"/>
-      <c r="K44" s="266"/>
+      <c r="D44" s="329"/>
+      <c r="E44" s="286"/>
+      <c r="F44" s="286"/>
+      <c r="G44" s="286"/>
+      <c r="H44" s="310" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="I44" s="310" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="J44" s="310" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="K44" s="310" t="n">
+        <v>66.67</v>
+      </c>
       <c r="L44" s="159"/>
       <c r="M44" s="159"/>
       <c r="N44" s="159"/>
@@ -17152,20 +17821,20 @@
     </row>
     <row r="45">
       <c r="A45" s="159"/>
-      <c r="B45" s="206" t="s">
+      <c r="B45" s="216" t="s">
         <v>620</v>
       </c>
-      <c r="C45" s="206" t="s">
+      <c r="C45" s="216" t="s">
         <v>568</v>
       </c>
-      <c r="D45" s="230"/>
-      <c r="E45" s="230"/>
-      <c r="F45" s="230"/>
-      <c r="G45" s="230"/>
-      <c r="H45" s="230"/>
-      <c r="I45" s="230"/>
-      <c r="J45" s="230"/>
-      <c r="K45" s="230"/>
+      <c r="D45" s="330"/>
+      <c r="E45" s="330"/>
+      <c r="F45" s="330"/>
+      <c r="G45" s="330"/>
+      <c r="H45" s="311"/>
+      <c r="I45" s="311"/>
+      <c r="J45" s="311"/>
+      <c r="K45" s="311"/>
       <c r="L45" s="159"/>
       <c r="M45" s="159"/>
       <c r="N45" s="159"/>
@@ -17178,20 +17847,20 @@
     </row>
     <row r="46" outlineLevel="1" hidden="0">
       <c r="A46" s="159"/>
-      <c r="B46" s="230" t="s">
+      <c r="B46" s="272" t="s">
         <v>622</v>
       </c>
-      <c r="C46" s="230" t="s">
+      <c r="C46" s="272" t="s">
         <v>568</v>
       </c>
-      <c r="D46" s="230"/>
-      <c r="E46" s="230"/>
-      <c r="F46" s="230"/>
-      <c r="G46" s="230"/>
-      <c r="H46" s="230"/>
-      <c r="I46" s="230"/>
-      <c r="J46" s="230"/>
-      <c r="K46" s="230"/>
+      <c r="D46" s="331"/>
+      <c r="E46" s="287"/>
+      <c r="F46" s="287"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="312"/>
+      <c r="I46" s="312"/>
+      <c r="J46" s="312"/>
+      <c r="K46" s="312"/>
       <c r="L46" s="159"/>
       <c r="M46" s="159"/>
       <c r="N46" s="159"/>
@@ -17204,20 +17873,20 @@
     </row>
     <row r="47" outlineLevel="1" hidden="0">
       <c r="A47" s="159"/>
-      <c r="B47" s="230" t="s">
+      <c r="B47" s="272" t="s">
         <v>623</v>
       </c>
-      <c r="C47" s="230" t="s">
+      <c r="C47" s="272" t="s">
         <v>568</v>
       </c>
-      <c r="D47" s="230"/>
-      <c r="E47" s="230"/>
-      <c r="F47" s="230"/>
-      <c r="G47" s="230"/>
-      <c r="H47" s="230"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
-      <c r="K47" s="230"/>
+      <c r="D47" s="332"/>
+      <c r="E47" s="288"/>
+      <c r="F47" s="288"/>
+      <c r="G47" s="288"/>
+      <c r="H47" s="313"/>
+      <c r="I47" s="313"/>
+      <c r="J47" s="313"/>
+      <c r="K47" s="313"/>
       <c r="L47" s="159"/>
       <c r="M47" s="159"/>
       <c r="N47" s="159"/>
@@ -17232,14 +17901,14 @@
       <c r="A48" s="159"/>
       <c r="B48" s="159"/>
       <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
+      <c r="D48" s="333"/>
+      <c r="E48" s="333"/>
+      <c r="F48" s="333"/>
+      <c r="G48" s="333"/>
+      <c r="H48" s="314"/>
+      <c r="I48" s="314"/>
+      <c r="J48" s="314"/>
+      <c r="K48" s="314"/>
       <c r="L48" s="159"/>
       <c r="M48" s="159"/>
       <c r="N48" s="159"/>
@@ -17254,14 +17923,14 @@
       <c r="A49" s="159"/>
       <c r="B49" s="159"/>
       <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="159"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="159"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="289"/>
+      <c r="F49" s="315"/>
+      <c r="G49" s="315"/>
+      <c r="H49" s="315"/>
+      <c r="I49" s="315"/>
+      <c r="J49" s="315"/>
+      <c r="K49" s="315"/>
       <c r="L49" s="159"/>
       <c r="M49" s="159"/>
       <c r="N49" s="159"/>
@@ -17276,14 +17945,14 @@
       <c r="A50" s="159"/>
       <c r="B50" s="159"/>
       <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="159"/>
-      <c r="I50" s="159"/>
-      <c r="J50" s="159"/>
-      <c r="K50" s="159"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="290"/>
+      <c r="F50" s="316"/>
+      <c r="G50" s="316"/>
+      <c r="H50" s="316"/>
+      <c r="I50" s="316"/>
+      <c r="J50" s="316"/>
+      <c r="K50" s="316"/>
       <c r="L50" s="159"/>
       <c r="M50" s="159"/>
       <c r="N50" s="159"/>
@@ -17298,14 +17967,14 @@
       <c r="A51" s="159"/>
       <c r="B51" s="159"/>
       <c r="C51" s="159"/>
-      <c r="D51" s="159"/>
-      <c r="E51" s="159"/>
-      <c r="F51" s="159"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="159"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="159"/>
-      <c r="K51" s="159"/>
+      <c r="D51" s="334"/>
+      <c r="E51" s="334"/>
+      <c r="F51" s="334"/>
+      <c r="G51" s="317"/>
+      <c r="H51" s="317"/>
+      <c r="I51" s="317"/>
+      <c r="J51" s="317"/>
+      <c r="K51" s="317"/>
       <c r="L51" s="159"/>
       <c r="M51" s="159"/>
       <c r="N51" s="159"/>
@@ -19100,45 +19769,45 @@
     <row r="21" ht="33.75" customHeight="1"/>
     <row r="22" ht="50.5" customHeight="1">
       <c r="B22" s="125"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="273" t="str">
+      <c r="C22" s="335"/>
+      <c r="D22" s="335" t="str">
         <f>HEP_Inter!A3</f>
         <v>HEPI</v>
       </c>
-      <c r="E22" s="273"/>
-      <c r="F22" s="273" t="str">
+      <c r="E22" s="335"/>
+      <c r="F22" s="335" t="str">
         <f>HEP_Inter!A4</f>
         <v>Prepare</v>
       </c>
-      <c r="G22" s="273"/>
-      <c r="H22" s="273" t="str">
+      <c r="G22" s="335"/>
+      <c r="H22" s="335" t="str">
         <f>HEP_Inter!A5</f>
         <v>Prevent</v>
       </c>
-      <c r="I22" s="273"/>
-      <c r="J22" s="273" t="str">
+      <c r="I22" s="335"/>
+      <c r="J22" s="335" t="str">
         <f>HEP_Inter!A6</f>
         <v>Detect and Respond</v>
       </c>
-      <c r="K22" s="273"/>
-      <c r="L22" s="273"/>
-      <c r="M22" s="273"/>
-      <c r="N22" s="273"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="273"/>
-      <c r="Q22" s="273"/>
-      <c r="R22" s="273"/>
-      <c r="S22" s="273"/>
-      <c r="T22" s="273"/>
-      <c r="U22" s="273"/>
-      <c r="V22" s="273"/>
-      <c r="W22" s="273"/>
-      <c r="X22" s="273"/>
-      <c r="Y22" s="273"/>
-      <c r="Z22" s="273"/>
-      <c r="AA22" s="273"/>
-      <c r="AB22" s="273"/>
-      <c r="AC22" s="273"/>
+      <c r="K22" s="335"/>
+      <c r="L22" s="335"/>
+      <c r="M22" s="335"/>
+      <c r="N22" s="335"/>
+      <c r="O22" s="335"/>
+      <c r="P22" s="335"/>
+      <c r="Q22" s="335"/>
+      <c r="R22" s="335"/>
+      <c r="S22" s="335"/>
+      <c r="T22" s="335"/>
+      <c r="U22" s="335"/>
+      <c r="V22" s="335"/>
+      <c r="W22" s="335"/>
+      <c r="X22" s="335"/>
+      <c r="Y22" s="335"/>
+      <c r="Z22" s="335"/>
+      <c r="AA22" s="335"/>
+      <c r="AB22" s="335"/>
+      <c r="AC22" s="335"/>
     </row>
     <row r="23">
       <c r="B23" s="120"/>
